--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.674846398104478</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.3208590117440195</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.570898107979751</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>6.554162028592316</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007441243306774717</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,128 +448,1100 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.131520930486161</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8598517035589452</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>1.465829700273474</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.2818349304405814</v>
+      </c>
+      <c r="E3">
+        <v>0.4994047660698584</v>
+      </c>
+      <c r="F3">
+        <v>5.683975686209976</v>
+      </c>
+      <c r="G3">
+        <v>0.000759862923331843</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1.816731572984153</v>
+      </c>
+      <c r="L3">
+        <v>0.7356628050441714</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>1.341289910367067</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2590000602732943</v>
+      </c>
+      <c r="E4">
+        <v>0.4571604703112015</v>
+      </c>
+      <c r="F4">
+        <v>5.171938079437695</v>
+      </c>
+      <c r="G4">
+        <v>0.0007696347621728565</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1.62949197677996</v>
+      </c>
+      <c r="L4">
+        <v>0.6617418454154631</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>1.291361649556393</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2499319378010654</v>
+      </c>
+      <c r="E5">
+        <v>0.4402711853146002</v>
+      </c>
+      <c r="F5">
+        <v>4.967972319194217</v>
+      </c>
+      <c r="G5">
+        <v>0.0007736522299588433</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1.554431277195349</v>
+      </c>
+      <c r="L5">
+        <v>0.6321070400044277</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>1.283117261961422</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.2484393002142582</v>
+      </c>
+      <c r="E6">
+        <v>0.4374840561898594</v>
+      </c>
+      <c r="F6">
+        <v>4.934363533304861</v>
+      </c>
+      <c r="G6">
+        <v>0.000774321678753435</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>1.542035129403644</v>
+      </c>
+      <c r="L6">
+        <v>0.6272131250892841</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>1.340613390924801</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.2588768593826103</v>
+      </c>
+      <c r="E7">
+        <v>0.456931484889175</v>
+      </c>
+      <c r="F7">
+        <v>5.169169418648124</v>
+      </c>
+      <c r="G7">
+        <v>0.0007696887901024919</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1.628474993857623</v>
+      </c>
+      <c r="L7">
+        <v>0.6613403205258095</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>1.601903717682973</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.3071398517754886</v>
+      </c>
+      <c r="E8">
+        <v>0.5458446721662042</v>
+      </c>
+      <c r="F8">
+        <v>6.248912252248488</v>
+      </c>
+      <c r="G8">
+        <v>0.0007495338283038911</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>2.021545111382096</v>
+      </c>
+      <c r="L8">
+        <v>0.8164837993493563</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>2.151586493121386</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.4132548510051635</v>
+      </c>
+      <c r="E9">
+        <v>0.7384576774027991</v>
+      </c>
+      <c r="F9">
+        <v>8.592794125243927</v>
+      </c>
+      <c r="G9">
+        <v>0.0007104201995936795</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2.855839404168393</v>
+      </c>
+      <c r="L9">
+        <v>1.144600201567442</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>2.590705502291996</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.5027716636600985</v>
+      </c>
+      <c r="E10">
+        <v>0.9006977577695494</v>
+      </c>
+      <c r="F10">
+        <v>10.54239065976327</v>
+      </c>
+      <c r="G10">
+        <v>0.0006811279325495224</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>3.535730449257017</v>
+      </c>
+      <c r="L10">
+        <v>1.409836145213205</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>2.801976030648802</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.5474601934990346</v>
+      </c>
+      <c r="E11">
+        <v>0.9822168435859027</v>
+      </c>
+      <c r="F11">
+        <v>11.50716456550879</v>
+      </c>
+      <c r="G11">
+        <v>0.0006674250547784261</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>3.868681878772421</v>
+      </c>
+      <c r="L11">
+        <v>1.538781227099918</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>2.884075833935924</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.565126205942903</v>
+      </c>
+      <c r="E12">
+        <v>1.014591665083763</v>
+      </c>
+      <c r="F12">
+        <v>11.887069507239</v>
+      </c>
+      <c r="G12">
+        <v>0.0006621513887560969</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>3.999258383565234</v>
+      </c>
+      <c r="L12">
+        <v>1.589158198222293</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>2.866292433425656</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.5612850476768756</v>
+      </c>
+      <c r="E13">
+        <v>1.007544286912335</v>
+      </c>
+      <c r="F13">
+        <v>11.80453632824856</v>
+      </c>
+      <c r="G13">
+        <v>0.0006632915305284982</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>3.970914913037149</v>
+      </c>
+      <c r="L13">
+        <v>1.578232786284389</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>2.80868540634691</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.5488974846284975</v>
+      </c>
+      <c r="E14">
+        <v>0.9848473708451095</v>
+      </c>
+      <c r="F14">
+        <v>11.53810430068563</v>
+      </c>
+      <c r="G14">
+        <v>0.0006669930953287147</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>3.879326777061749</v>
+      </c>
+      <c r="L14">
+        <v>1.542892275647631</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>2.773687809655598</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.5414126924279117</v>
+      </c>
+      <c r="E15">
+        <v>0.9711551412172525</v>
+      </c>
+      <c r="F15">
+        <v>11.37692294293748</v>
+      </c>
+      <c r="G15">
+        <v>0.0006692483066415011</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3.823850621536707</v>
+      </c>
+      <c r="L15">
+        <v>1.521459395397784</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>2.577164914593197</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.4999445216996037</v>
+      </c>
+      <c r="E16">
+        <v>0.8955562427378396</v>
+      </c>
+      <c r="F16">
+        <v>10.48117134722833</v>
+      </c>
+      <c r="G16">
+        <v>0.0006820134710347865</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>3.514532753357017</v>
+      </c>
+      <c r="L16">
+        <v>1.401604015273222</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>2.459828306889335</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.475627667729924</v>
+      </c>
+      <c r="E17">
+        <v>0.8513950423007373</v>
+      </c>
+      <c r="F17">
+        <v>9.953682098131651</v>
+      </c>
+      <c r="G17">
+        <v>0.0006897290473585646</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>3.331507573528725</v>
+      </c>
+      <c r="L17">
+        <v>1.33041974664448</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>2.39339055043763</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.4620016736566299</v>
+      </c>
+      <c r="E18">
+        <v>0.8266907370694625</v>
+      </c>
+      <c r="F18">
+        <v>9.657364120990025</v>
+      </c>
+      <c r="G18">
+        <v>0.0006941335691051507</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>3.228381698285716</v>
+      </c>
+      <c r="L18">
+        <v>1.290229944955513</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>2.371064986207841</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.4574456421781576</v>
+      </c>
+      <c r="E19">
+        <v>0.8184359326639594</v>
+      </c>
+      <c r="F19">
+        <v>9.558166043805358</v>
+      </c>
+      <c r="G19">
+        <v>0.0006956199233896232</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>3.193805827599519</v>
+      </c>
+      <c r="L19">
+        <v>1.27674265732432</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>2.472207412227817</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.478177858608916</v>
+      </c>
+      <c r="E20">
+        <v>0.8560216104232694</v>
+      </c>
+      <c r="F20">
+        <v>10.00908048392162</v>
+      </c>
+      <c r="G20">
+        <v>0.0006889113440461343</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>3.350762099973949</v>
+      </c>
+      <c r="L20">
+        <v>1.337917217367021</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>2.825544901990725</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.5525141614110112</v>
+      </c>
+      <c r="E21">
+        <v>0.9914692540444676</v>
+      </c>
+      <c r="F21">
+        <v>11.61593403013876</v>
+      </c>
+      <c r="G21">
+        <v>0.0006659084482117211</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>3.906095829594236</v>
+      </c>
+      <c r="L21">
+        <v>1.55322718897034</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>3.069005833776487</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.6055594945659379</v>
+      </c>
+      <c r="E22">
+        <v>1.089073049532423</v>
+      </c>
+      <c r="F22">
+        <v>12.75350394256907</v>
+      </c>
+      <c r="G22">
+        <v>0.0006503584985052351</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>4.296060340495842</v>
+      </c>
+      <c r="L22">
+        <v>1.703231722625645</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>2.937734696766483</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.5767657731625206</v>
+      </c>
+      <c r="E23">
+        <v>1.035975509155051</v>
+      </c>
+      <c r="F23">
+        <v>12.13692658301966</v>
+      </c>
+      <c r="G23">
+        <v>0.000658718044265007</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>4.084985976772373</v>
+      </c>
+      <c r="L23">
+        <v>1.622170047317866</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>2.466607670980693</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.4770238265946034</v>
+      </c>
+      <c r="E24">
+        <v>0.8539278344075143</v>
+      </c>
+      <c r="F24">
+        <v>9.984013486348459</v>
+      </c>
+      <c r="G24">
+        <v>0.0006892811228906292</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>3.342050671385437</v>
+      </c>
+      <c r="L24">
+        <v>1.334525346725627</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.99775890314038</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.382914938284884</v>
+      </c>
+      <c r="E25">
+        <v>0.6835621829597258</v>
+      </c>
+      <c r="F25">
+        <v>7.926506928943553</v>
+      </c>
+      <c r="G25">
+        <v>0.0007210291809471918</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2.620850766369614</v>
+      </c>
+      <c r="L25">
+        <v>1.052422336356386</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.674846398104478</v>
+        <v>0.9172726730903946</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3208590117440195</v>
+        <v>0.03687692748999538</v>
       </c>
       <c r="E2">
-        <v>0.570898107979751</v>
+        <v>0.06895325819410103</v>
       </c>
       <c r="F2">
-        <v>6.554162028592316</v>
+        <v>1.27863016852146</v>
       </c>
       <c r="G2">
-        <v>0.0007441243306774717</v>
+        <v>1.034972503320162</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7122953512620711</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1262649745048527</v>
       </c>
       <c r="K2">
-        <v>2.131520930486161</v>
+        <v>1.346176707974791</v>
       </c>
       <c r="L2">
-        <v>0.8598517035589452</v>
+        <v>0.2142845012138253</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.2323950628134916</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.477659237155184</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.465829700273474</v>
+        <v>0.8260105916556313</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2818349304405814</v>
+        <v>0.0358662726389376</v>
       </c>
       <c r="E3">
-        <v>0.4994047660698584</v>
+        <v>0.06942687719275131</v>
       </c>
       <c r="F3">
-        <v>5.683975686209976</v>
+        <v>1.238785786010027</v>
       </c>
       <c r="G3">
-        <v>0.000759862923331843</v>
+        <v>0.9918454126091234</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6997179444276611</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1272965797592089</v>
       </c>
       <c r="K3">
-        <v>1.816731572984153</v>
+        <v>1.166661805121976</v>
       </c>
       <c r="L3">
-        <v>0.7356628050441714</v>
+        <v>0.1879570215793223</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.2070134985998422</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.533612884661153</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.341289910367067</v>
+        <v>0.7707843388052993</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2590000602732943</v>
+        <v>0.03526597743038806</v>
       </c>
       <c r="E4">
-        <v>0.4571604703112015</v>
+        <v>0.06974356115267055</v>
       </c>
       <c r="F4">
-        <v>5.171938079437695</v>
+        <v>1.216229238703995</v>
       </c>
       <c r="G4">
-        <v>0.0007696347621728565</v>
+        <v>0.9671114428040255</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6930050224629412</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1279647845250587</v>
       </c>
       <c r="K4">
-        <v>1.62949197677996</v>
+        <v>1.057102456790147</v>
       </c>
       <c r="L4">
-        <v>0.6617418454154631</v>
+        <v>0.1719449079265871</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1916209162006481</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.569496846048313</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.291361649556393</v>
+        <v>0.748468584720456</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2499319378010654</v>
+        <v>0.0350262163381494</v>
       </c>
       <c r="E5">
-        <v>0.4402711853146002</v>
+        <v>0.06987901299335442</v>
       </c>
       <c r="F5">
-        <v>4.967972319194217</v>
+        <v>1.207494851914056</v>
       </c>
       <c r="G5">
-        <v>0.0007736522299588433</v>
+        <v>0.9574478346717967</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.690512745289297</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.128245766346696</v>
       </c>
       <c r="K5">
-        <v>1.554431277195349</v>
+        <v>1.012596594336685</v>
       </c>
       <c r="L5">
-        <v>0.6321070400044277</v>
+        <v>0.1654542997539465</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1853926627145555</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.584496117946429</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.283117261961422</v>
+        <v>0.7447741133583179</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2484393002142582</v>
+        <v>0.03498669167585433</v>
       </c>
       <c r="E6">
-        <v>0.4374840561898594</v>
+        <v>0.06990188828055144</v>
       </c>
       <c r="F6">
-        <v>4.934363533304861</v>
+        <v>1.206071524284944</v>
       </c>
       <c r="G6">
-        <v>0.000774321678753435</v>
+        <v>0.9558676457936883</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.6901133002435529</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1282929457652102</v>
       </c>
       <c r="K6">
-        <v>1.542035129403644</v>
+        <v>1.005214170833227</v>
       </c>
       <c r="L6">
-        <v>0.6272131250892841</v>
+        <v>0.1643785069864734</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1843610351555469</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.587009235247329</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.340613390924801</v>
+        <v>0.7704826319126141</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2588768593826103</v>
+        <v>0.0352627245211643</v>
       </c>
       <c r="E7">
-        <v>0.456931484889175</v>
+        <v>0.06974536212297422</v>
       </c>
       <c r="F7">
-        <v>5.169169418648124</v>
+        <v>1.216109619421736</v>
       </c>
       <c r="G7">
-        <v>0.0007696887901024919</v>
+        <v>0.9669794629282364</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6929704392274374</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1279685388703111</v>
       </c>
       <c r="K7">
-        <v>1.628474993857623</v>
+        <v>1.05650170021633</v>
       </c>
       <c r="L7">
-        <v>0.6613403205258095</v>
+        <v>0.1718572389538053</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1915367452026544</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.569697618242884</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.601903717682973</v>
+        <v>0.8856288741856986</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3071398517754886</v>
+        <v>0.03652410659879379</v>
       </c>
       <c r="E8">
-        <v>0.5458446721662042</v>
+        <v>0.06911112332118985</v>
       </c>
       <c r="F8">
-        <v>6.248912252248488</v>
+        <v>1.264482047914441</v>
       </c>
       <c r="G8">
-        <v>0.0007495338283038911</v>
+        <v>1.019725336569905</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7077425410131042</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1266134084178727</v>
       </c>
       <c r="K8">
-        <v>2.021545111382096</v>
+        <v>1.284125843026715</v>
       </c>
       <c r="L8">
-        <v>0.8164837993493563</v>
+        <v>0.2051725101095769</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.2236012804740604</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.496629928888449</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.151586493121386</v>
+        <v>1.11853326015185</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4132548510051635</v>
+        <v>0.03916989252342873</v>
       </c>
       <c r="E9">
-        <v>0.7384576774027991</v>
+        <v>0.06807805133602307</v>
       </c>
       <c r="F9">
-        <v>8.592794125243927</v>
+        <v>1.37555007097302</v>
       </c>
       <c r="G9">
-        <v>0.0007104201995936795</v>
+        <v>1.13814468760539</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.7452326054865921</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1242353858724039</v>
       </c>
       <c r="K9">
-        <v>2.855839404168393</v>
+        <v>1.737050882640943</v>
       </c>
       <c r="L9">
-        <v>1.144600201567442</v>
+        <v>0.2719152770707183</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2881908088624883</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.365849780956047</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.590705502291996</v>
+        <v>1.295006625524707</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5027716636600985</v>
+        <v>0.04123682443711729</v>
       </c>
       <c r="E10">
-        <v>0.9006977577695494</v>
+        <v>0.06745571744954293</v>
       </c>
       <c r="F10">
-        <v>10.54239065976327</v>
+        <v>1.468631100889809</v>
       </c>
       <c r="G10">
-        <v>0.0006811279325495224</v>
+        <v>1.235969493762838</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.778735146239228</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.12266369716383</v>
       </c>
       <c r="K10">
-        <v>3.535730449257017</v>
+        <v>2.075761880023236</v>
       </c>
       <c r="L10">
-        <v>1.409836145213205</v>
+        <v>0.3221099225724799</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.3369730802574011</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.277947891711371</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.801976030648802</v>
+        <v>1.376699355929503</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5474601934990346</v>
+        <v>0.04220844565059423</v>
       </c>
       <c r="E11">
-        <v>0.9822168435859027</v>
+        <v>0.06720437527925505</v>
       </c>
       <c r="F11">
-        <v>11.50716456550879</v>
+        <v>1.513853341902831</v>
       </c>
       <c r="G11">
-        <v>0.0006674250547784261</v>
+        <v>1.283229355349903</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.7954544896475966</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1219881226131445</v>
       </c>
       <c r="K11">
-        <v>3.868681878772421</v>
+        <v>2.231614046859875</v>
       </c>
       <c r="L11">
-        <v>1.538781227099918</v>
+        <v>0.3452685926490773</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.3595225353816787</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.23987041296445</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.884075833935924</v>
+        <v>1.407859523196123</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.565126205942903</v>
+        <v>0.04258131356585793</v>
       </c>
       <c r="E12">
-        <v>1.014591665083763</v>
+        <v>0.06711396625117128</v>
       </c>
       <c r="F12">
-        <v>11.887069507239</v>
+        <v>1.531426577176532</v>
       </c>
       <c r="G12">
-        <v>0.0006621513887560969</v>
+        <v>1.301558964275557</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.8020150325273221</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1217380962658581</v>
       </c>
       <c r="K12">
-        <v>3.999258383565234</v>
+        <v>2.290928150936338</v>
       </c>
       <c r="L12">
-        <v>1.589158198222293</v>
+        <v>0.3540913627126514</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.3681190466741242</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.225738498611442</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.866292433425656</v>
+        <v>1.401138260051653</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5612850476768756</v>
+        <v>0.04250078295499549</v>
       </c>
       <c r="E13">
-        <v>1.007544286912335</v>
+        <v>0.06713322189748561</v>
       </c>
       <c r="F13">
-        <v>11.80453632824856</v>
+        <v>1.527621337610952</v>
       </c>
       <c r="G13">
-        <v>0.0006632915305284982</v>
+        <v>1.297591468041787</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.8005916250860423</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1217916836818862</v>
       </c>
       <c r="K13">
-        <v>3.970914913037149</v>
+        <v>2.278139920565309</v>
       </c>
       <c r="L13">
-        <v>1.578232786284389</v>
+        <v>0.3521887532944845</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.3662649748838618</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.228769074299571</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.80868540634691</v>
+        <v>1.379258284887953</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.5488974846284975</v>
+        <v>0.04223902018033598</v>
       </c>
       <c r="E14">
-        <v>0.9848473708451095</v>
+        <v>0.06719684046195562</v>
       </c>
       <c r="F14">
-        <v>11.53810430068563</v>
+        <v>1.515289905257319</v>
       </c>
       <c r="G14">
-        <v>0.0006669930953287147</v>
+        <v>1.284728438568806</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.7959895340329979</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1219674357448302</v>
       </c>
       <c r="K14">
-        <v>3.879326777061749</v>
+        <v>2.236487665388069</v>
       </c>
       <c r="L14">
-        <v>1.542892275647631</v>
+        <v>0.3459933449989734</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.3602285865337365</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.238701940115746</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.773687809655598</v>
+        <v>1.36588612523957</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.5414126924279117</v>
+        <v>0.04207933920504203</v>
       </c>
       <c r="E15">
-        <v>0.9711551412172525</v>
+        <v>0.06723643608899987</v>
       </c>
       <c r="F15">
-        <v>11.37692294293748</v>
+        <v>1.507796033501762</v>
       </c>
       <c r="G15">
-        <v>0.0006692483066415011</v>
+        <v>1.276907030252659</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.7932009974753669</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1220758484346938</v>
       </c>
       <c r="K15">
-        <v>3.823850621536707</v>
+        <v>2.211014334065737</v>
       </c>
       <c r="L15">
-        <v>1.521459395397784</v>
+        <v>0.3422055896815408</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.3565388022012854</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.244823900658105</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.577164914593197</v>
+        <v>1.289698074631673</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4999445216996037</v>
+        <v>0.04117399316032433</v>
       </c>
       <c r="E16">
-        <v>0.8955562427378396</v>
+        <v>0.06747279907457449</v>
       </c>
       <c r="F16">
-        <v>10.48117134722833</v>
+        <v>1.465736547976405</v>
       </c>
       <c r="G16">
-        <v>0.0006820134710347865</v>
+        <v>1.232939528582193</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.7776736477130584</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1227086513670788</v>
       </c>
       <c r="K16">
-        <v>3.514532753357017</v>
+        <v>2.065615688916864</v>
       </c>
       <c r="L16">
-        <v>1.401604015273222</v>
+        <v>0.3206035187924527</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.3355071312510205</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.280475824788915</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.459828306889335</v>
+        <v>1.243336190865477</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.475627667729924</v>
+        <v>0.04062691403103358</v>
       </c>
       <c r="E17">
-        <v>0.8513950423007373</v>
+        <v>0.06762607114691432</v>
       </c>
       <c r="F17">
-        <v>9.953682098131651</v>
+        <v>1.440695572885502</v>
       </c>
       <c r="G17">
-        <v>0.0006897290473585646</v>
+        <v>1.206698635595103</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.7685383123124865</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1231070357532058</v>
       </c>
       <c r="K17">
-        <v>3.331507573528725</v>
+        <v>1.976900438287686</v>
       </c>
       <c r="L17">
-        <v>1.33041974664448</v>
+        <v>0.3074389243347895</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.3227007514374733</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.302844867957091</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.39339055043763</v>
+        <v>1.216801780254855</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.4620016736566299</v>
+        <v>0.04031517246665572</v>
       </c>
       <c r="E18">
-        <v>0.8266907370694625</v>
+        <v>0.06771720528278102</v>
       </c>
       <c r="F18">
-        <v>9.657364120990025</v>
+        <v>1.42656144916576</v>
       </c>
       <c r="G18">
-        <v>0.0006941335691051507</v>
+        <v>1.191862886891272</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.7634220350750383</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1233398749574981</v>
       </c>
       <c r="K18">
-        <v>3.228381698285716</v>
+        <v>1.926037764198526</v>
       </c>
       <c r="L18">
-        <v>1.290229944955513</v>
+        <v>0.2998971653325242</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.3153681844067648</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.315889872371237</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.371064986207841</v>
+        <v>1.207839677075185</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4574456421781576</v>
+        <v>0.04021011209157876</v>
       </c>
       <c r="E19">
-        <v>0.8184359326639594</v>
+        <v>0.06774856710639465</v>
       </c>
       <c r="F19">
-        <v>9.558166043805358</v>
+        <v>1.421821033243887</v>
       </c>
       <c r="G19">
-        <v>0.0006956199233896232</v>
+        <v>1.186882883992055</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.7617129896509311</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1234193417999396</v>
       </c>
       <c r="K19">
-        <v>3.193805827599519</v>
+        <v>1.908843489177059</v>
       </c>
       <c r="L19">
-        <v>1.27674265732432</v>
+        <v>0.2973486510248762</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3128910507759031</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.320337048506786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.472207412227817</v>
+        <v>1.248257709184259</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.478177858608916</v>
+        <v>0.04068484599245181</v>
       </c>
       <c r="E20">
-        <v>0.8560216104232694</v>
+        <v>0.06760944567089511</v>
       </c>
       <c r="F20">
-        <v>10.00908048392162</v>
+        <v>1.443333167956055</v>
       </c>
       <c r="G20">
-        <v>0.0006889113440461343</v>
+        <v>1.209465136077498</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.7694963726216173</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1230642432985061</v>
       </c>
       <c r="K20">
-        <v>3.350762099973949</v>
+        <v>1.98632706496781</v>
       </c>
       <c r="L20">
-        <v>1.337917217367021</v>
+        <v>0.3088371511945951</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.3240605214172518</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.30044503912314</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.825544901990725</v>
+        <v>1.385678680158179</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.5525141614110112</v>
+        <v>0.04231576865447195</v>
       </c>
       <c r="E21">
-        <v>0.9914692540444676</v>
+        <v>0.06717802300044373</v>
       </c>
       <c r="F21">
-        <v>11.61593403013876</v>
+        <v>1.51889948335976</v>
       </c>
       <c r="G21">
-        <v>0.0006659084482117211</v>
+        <v>1.288494555320597</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.797334917560363</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1219156545660223</v>
       </c>
       <c r="K21">
-        <v>3.906095829594236</v>
+        <v>2.24871355269832</v>
       </c>
       <c r="L21">
-        <v>1.55322718897034</v>
+        <v>0.3478115925166776</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.3620000086424398</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.235776516602478</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.069005833776487</v>
+        <v>1.476813354792569</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6055594945659379</v>
+        <v>0.04341067541898624</v>
       </c>
       <c r="E22">
-        <v>1.089073049532423</v>
+        <v>0.06692397048784149</v>
       </c>
       <c r="F22">
-        <v>12.75350394256907</v>
+        <v>1.570919009620852</v>
       </c>
       <c r="G22">
-        <v>0.0006503584985052351</v>
+        <v>1.342689777360732</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.8168742155147015</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.1211988615735233</v>
       </c>
       <c r="K22">
-        <v>4.296060340495842</v>
+        <v>2.421947057903168</v>
       </c>
       <c r="L22">
-        <v>1.703231722625645</v>
+        <v>0.3735964046629903</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3871340831239465</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.195192515834094</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.937734696766483</v>
+        <v>1.428044528662241</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.5767657731625206</v>
+        <v>0.0428234955326694</v>
       </c>
       <c r="E23">
-        <v>1.035975509155051</v>
+        <v>0.06705693672016744</v>
       </c>
       <c r="F23">
-        <v>12.13692658301966</v>
+        <v>1.542902188620531</v>
       </c>
       <c r="G23">
-        <v>0.000658718044265007</v>
+        <v>1.313519022205782</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.8063167825293363</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1215782790103823</v>
       </c>
       <c r="K23">
-        <v>4.084985976772373</v>
+        <v>2.329314388202391</v>
       </c>
       <c r="L23">
-        <v>1.622170047317866</v>
+        <v>0.3598037026226137</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3736864731287</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.216694750206649</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.466607670980693</v>
+        <v>1.246032319666824</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.4770238265946034</v>
+        <v>0.04065864632055494</v>
       </c>
       <c r="E24">
-        <v>0.8539278344075143</v>
+        <v>0.06761695266944256</v>
       </c>
       <c r="F24">
-        <v>9.984013486348459</v>
+        <v>1.442139896900855</v>
       </c>
       <c r="G24">
-        <v>0.0006892811228906292</v>
+        <v>1.208213623720184</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.769062811969917</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1230835779325909</v>
       </c>
       <c r="K24">
-        <v>3.342050671385437</v>
+        <v>1.982064851262379</v>
       </c>
       <c r="L24">
-        <v>1.334525346725627</v>
+        <v>0.3082049300118683</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.3234456764425317</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.301529427246116</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.99775890314038</v>
+        <v>1.054664089170529</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.382914938284884</v>
+        <v>0.0384339488019485</v>
       </c>
       <c r="E25">
-        <v>0.6835621829597258</v>
+        <v>0.06833417505613504</v>
       </c>
       <c r="F25">
-        <v>7.926506928943553</v>
+        <v>1.343609809913701</v>
       </c>
       <c r="G25">
-        <v>0.0007210291809471918</v>
+        <v>1.104338100263448</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.7341027751648426</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.1248483031447138</v>
       </c>
       <c r="K25">
-        <v>2.620850766369614</v>
+        <v>1.613628171251179</v>
       </c>
       <c r="L25">
-        <v>1.052422336356386</v>
+        <v>0.2536790108254081</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2705062089772383</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.39983533439252</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9172726730903946</v>
+        <v>1.177551604473877</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03687692748999538</v>
+        <v>0.1111673006571401</v>
       </c>
       <c r="E2">
-        <v>0.06895325819410103</v>
+        <v>0.1706298720381338</v>
       </c>
       <c r="F2">
-        <v>1.27863016852146</v>
+        <v>2.423515257680847</v>
       </c>
       <c r="G2">
-        <v>1.034972503320162</v>
+        <v>1.702612152364651</v>
       </c>
       <c r="H2">
-        <v>0.7122953512620711</v>
+        <v>1.507559806245695</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1262649745048527</v>
+        <v>0.2655555384710722</v>
       </c>
       <c r="K2">
-        <v>1.346176707974791</v>
+        <v>0.5802664747389201</v>
       </c>
       <c r="L2">
-        <v>0.2142845012138253</v>
+        <v>0.1919466336200912</v>
       </c>
       <c r="M2">
-        <v>0.2323950628134916</v>
+        <v>0.2656339456856216</v>
       </c>
       <c r="N2">
-        <v>1.477659237155184</v>
+        <v>3.018603368224845</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8260105916556313</v>
+        <v>1.159121228193612</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0358662726389376</v>
+        <v>0.1112072717473254</v>
       </c>
       <c r="E3">
-        <v>0.06942687719275131</v>
+        <v>0.1710572777252943</v>
       </c>
       <c r="F3">
-        <v>1.238785786010027</v>
+        <v>2.426490535055862</v>
       </c>
       <c r="G3">
-        <v>0.9918454126091234</v>
+        <v>1.701411247377848</v>
       </c>
       <c r="H3">
-        <v>0.6997179444276611</v>
+        <v>1.512107015662849</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1272965797592089</v>
+        <v>0.2660855716250907</v>
       </c>
       <c r="K3">
-        <v>1.166661805121976</v>
+        <v>0.5315427134649156</v>
       </c>
       <c r="L3">
-        <v>0.1879570215793223</v>
+        <v>0.1858347664823725</v>
       </c>
       <c r="M3">
-        <v>0.2070134985998422</v>
+        <v>0.2601866460158142</v>
       </c>
       <c r="N3">
-        <v>1.533612884661153</v>
+        <v>3.042393113258008</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7707843388052993</v>
+        <v>1.148327013197417</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03526597743038806</v>
+        <v>0.1112495207557416</v>
       </c>
       <c r="E4">
-        <v>0.06974356115267055</v>
+        <v>0.1713375635083783</v>
       </c>
       <c r="F4">
-        <v>1.216229238703995</v>
+        <v>2.429343575623278</v>
       </c>
       <c r="G4">
-        <v>0.9671114428040255</v>
+        <v>1.701507668663524</v>
       </c>
       <c r="H4">
-        <v>0.6930050224629412</v>
+        <v>1.515470812905036</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1279647845250587</v>
+        <v>0.2664315478317461</v>
       </c>
       <c r="K4">
-        <v>1.057102456790147</v>
+        <v>0.5018435728428869</v>
       </c>
       <c r="L4">
-        <v>0.1719449079265871</v>
+        <v>0.1821698538767507</v>
       </c>
       <c r="M4">
-        <v>0.1916209162006481</v>
+        <v>0.2569619244733019</v>
       </c>
       <c r="N4">
-        <v>1.569496846048313</v>
+        <v>3.057787081099281</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.748468584720456</v>
+        <v>1.144060060659825</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0350262163381494</v>
+        <v>0.1112712077995113</v>
       </c>
       <c r="E5">
-        <v>0.06987901299335442</v>
+        <v>0.1714562826130657</v>
       </c>
       <c r="F5">
-        <v>1.207494851914056</v>
+        <v>2.430764462194048</v>
       </c>
       <c r="G5">
-        <v>0.9574478346717967</v>
+        <v>1.701756639637111</v>
       </c>
       <c r="H5">
-        <v>0.690512745289297</v>
+        <v>1.516985499993368</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.128245766346696</v>
+        <v>0.2665777115678054</v>
       </c>
       <c r="K5">
-        <v>1.012596594336685</v>
+        <v>0.4897959637178815</v>
       </c>
       <c r="L5">
-        <v>0.1654542997539465</v>
+        <v>0.1806985391216926</v>
       </c>
       <c r="M5">
-        <v>0.1853926627145555</v>
+        <v>0.255678100110682</v>
       </c>
       <c r="N5">
-        <v>1.584496117946429</v>
+        <v>3.064258194315034</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7447741133583179</v>
+        <v>1.143359509896982</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03498669167585433</v>
+        <v>0.1112750794332769</v>
       </c>
       <c r="E6">
-        <v>0.06990188828055144</v>
+        <v>0.1714762679393593</v>
       </c>
       <c r="F6">
-        <v>1.206071524284944</v>
+        <v>2.431016002912166</v>
       </c>
       <c r="G6">
-        <v>0.9558676457936883</v>
+        <v>1.701810645707766</v>
       </c>
       <c r="H6">
-        <v>0.6901133002435529</v>
+        <v>1.517245708451767</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1282929457652102</v>
+        <v>0.2666022949005207</v>
       </c>
       <c r="K6">
-        <v>1.005214170833227</v>
+        <v>0.4877988016492623</v>
       </c>
       <c r="L6">
-        <v>0.1643785069864734</v>
+        <v>0.1804555698891619</v>
       </c>
       <c r="M6">
-        <v>0.1843610351555469</v>
+        <v>0.2554667540417519</v>
       </c>
       <c r="N6">
-        <v>1.587009235247329</v>
+        <v>3.065344674921707</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7704826319126141</v>
+        <v>1.148268933371526</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0352627245211643</v>
+        <v>0.1112497951099627</v>
       </c>
       <c r="E7">
-        <v>0.06974536212297422</v>
+        <v>0.1713391463600056</v>
       </c>
       <c r="F7">
-        <v>1.216109619421736</v>
+        <v>2.429361692291273</v>
       </c>
       <c r="G7">
-        <v>0.9669794629282364</v>
+        <v>1.701510177372441</v>
       </c>
       <c r="H7">
-        <v>0.6929704392274374</v>
+        <v>1.515490657639035</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1279685388703111</v>
+        <v>0.2664334980745213</v>
       </c>
       <c r="K7">
-        <v>1.05650170021633</v>
+        <v>0.5016808712821614</v>
       </c>
       <c r="L7">
-        <v>0.1718572389538053</v>
+        <v>0.182149921339871</v>
       </c>
       <c r="M7">
-        <v>0.1915367452026544</v>
+        <v>0.2569444876300331</v>
       </c>
       <c r="N7">
-        <v>1.569697618242884</v>
+        <v>3.0578735512475</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8856288741856986</v>
+        <v>1.17108873119949</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03652410659879379</v>
+        <v>0.1111774182002918</v>
       </c>
       <c r="E8">
-        <v>0.06911112332118985</v>
+        <v>0.170773541369212</v>
       </c>
       <c r="F8">
-        <v>1.264482047914441</v>
+        <v>2.42432825934722</v>
       </c>
       <c r="G8">
-        <v>1.019725336569905</v>
+        <v>1.702025034189845</v>
       </c>
       <c r="H8">
-        <v>0.7077425410131042</v>
+        <v>1.509009084854981</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1266134084178727</v>
+        <v>0.2657340395046184</v>
       </c>
       <c r="K8">
-        <v>1.284125843026715</v>
+        <v>0.5634215868421393</v>
       </c>
       <c r="L8">
-        <v>0.2051725101095769</v>
+        <v>0.189821090368639</v>
       </c>
       <c r="M8">
-        <v>0.2236012804740604</v>
+        <v>0.2637308895118124</v>
       </c>
       <c r="N8">
-        <v>1.496629928888449</v>
+        <v>3.026642773138366</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.11853326015185</v>
+        <v>1.219963019112015</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03916989252342873</v>
+        <v>0.111175243739229</v>
       </c>
       <c r="E9">
-        <v>0.06807805133602307</v>
+        <v>0.1698056273076491</v>
       </c>
       <c r="F9">
-        <v>1.37555007097302</v>
+        <v>2.422593579230266</v>
       </c>
       <c r="G9">
-        <v>1.13814468760539</v>
+        <v>1.709651867564332</v>
       </c>
       <c r="H9">
-        <v>0.7452326054865921</v>
+        <v>1.500830794549344</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1242353858724039</v>
+        <v>0.2645247763319283</v>
       </c>
       <c r="K9">
-        <v>1.737050882640943</v>
+        <v>0.6862113036758899</v>
       </c>
       <c r="L9">
-        <v>0.2719152770707183</v>
+        <v>0.2055579196290154</v>
       </c>
       <c r="M9">
-        <v>0.2881908088624883</v>
+        <v>0.277986581061846</v>
       </c>
       <c r="N9">
-        <v>1.365849780956047</v>
+        <v>2.971640193286312</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.295006625524707</v>
+        <v>1.258366497067726</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04123682443711729</v>
+        <v>0.111257917202785</v>
       </c>
       <c r="E10">
-        <v>0.06745571744954293</v>
+        <v>0.1691799832665495</v>
       </c>
       <c r="F10">
-        <v>1.468631100889809</v>
+        <v>2.426273286554817</v>
       </c>
       <c r="G10">
-        <v>1.235969493762838</v>
+        <v>1.719294743894181</v>
       </c>
       <c r="H10">
-        <v>0.778735146239228</v>
+        <v>1.497579831657163</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.12266369716383</v>
+        <v>0.2637345530402815</v>
       </c>
       <c r="K10">
-        <v>2.075761880023236</v>
+        <v>0.7774688693669987</v>
       </c>
       <c r="L10">
-        <v>0.3221099225724799</v>
+        <v>0.2175401239452412</v>
       </c>
       <c r="M10">
-        <v>0.3369730802574011</v>
+        <v>0.2890337909246838</v>
       </c>
       <c r="N10">
-        <v>1.277947891711371</v>
+        <v>2.935028618669186</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.376699355929503</v>
+        <v>1.276375422120395</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04220844565059423</v>
+        <v>0.1113136364834055</v>
       </c>
       <c r="E11">
-        <v>0.06720437527925505</v>
+        <v>0.1689137932384488</v>
       </c>
       <c r="F11">
-        <v>1.513853341902831</v>
+        <v>2.429022093946372</v>
       </c>
       <c r="G11">
-        <v>1.283229355349903</v>
+        <v>1.724560075568206</v>
       </c>
       <c r="H11">
-        <v>0.7954544896475966</v>
+        <v>1.496698687703827</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1219881226131445</v>
+        <v>0.2633962266279655</v>
       </c>
       <c r="K11">
-        <v>2.231614046859875</v>
+        <v>0.8192110829205319</v>
       </c>
       <c r="L11">
-        <v>0.3452685926490773</v>
+        <v>0.2230819709683374</v>
       </c>
       <c r="M11">
-        <v>0.3595225353816787</v>
+        <v>0.2941832136440894</v>
       </c>
       <c r="N11">
-        <v>1.23987041296445</v>
+        <v>2.91919672434102</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.407859523196123</v>
+        <v>1.283272022441878</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04258131356585793</v>
+        <v>0.1113373238533839</v>
       </c>
       <c r="E12">
-        <v>0.06711396625117128</v>
+        <v>0.1688156326261605</v>
       </c>
       <c r="F12">
-        <v>1.531426577176532</v>
+        <v>2.430217432546513</v>
       </c>
       <c r="G12">
-        <v>1.301558964275557</v>
+        <v>1.726680338059424</v>
       </c>
       <c r="H12">
-        <v>0.8020150325273221</v>
+        <v>1.496450876611789</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1217380962658581</v>
+        <v>0.263271140325358</v>
       </c>
       <c r="K12">
-        <v>2.290928150936338</v>
+        <v>0.8350504431195702</v>
       </c>
       <c r="L12">
-        <v>0.3540913627126514</v>
+        <v>0.2251935534165881</v>
       </c>
       <c r="M12">
-        <v>0.3681190466741242</v>
+        <v>0.296150900478267</v>
       </c>
       <c r="N12">
-        <v>1.225738498611442</v>
+        <v>2.913319882934147</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.401138260051653</v>
+        <v>1.281783298941463</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04250078295499549</v>
+        <v>0.1113321075289733</v>
       </c>
       <c r="E13">
-        <v>0.06713322189748561</v>
+        <v>0.1688366560047456</v>
       </c>
       <c r="F13">
-        <v>1.527621337610952</v>
+        <v>2.429953129161547</v>
       </c>
       <c r="G13">
-        <v>1.297591468041787</v>
+        <v>1.726218079560397</v>
       </c>
       <c r="H13">
-        <v>0.8005916250860423</v>
+        <v>1.496500430053175</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1217916836818862</v>
+        <v>0.263297945284366</v>
       </c>
       <c r="K13">
-        <v>2.278139920565309</v>
+        <v>0.8316377147974094</v>
       </c>
       <c r="L13">
-        <v>0.3521887532944845</v>
+        <v>0.2247382094090682</v>
       </c>
       <c r="M13">
-        <v>0.3662649748838618</v>
+        <v>0.2957263380273218</v>
       </c>
       <c r="N13">
-        <v>1.228769074299571</v>
+        <v>2.914580301691004</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.379258284887953</v>
+        <v>1.276941268990726</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04223902018033598</v>
+        <v>0.1113155334905898</v>
       </c>
       <c r="E14">
-        <v>0.06719684046195562</v>
+        <v>0.1689056646508362</v>
       </c>
       <c r="F14">
-        <v>1.515289905257319</v>
+        <v>2.429117341080982</v>
       </c>
       <c r="G14">
-        <v>1.284728438568806</v>
+        <v>1.724731977483486</v>
       </c>
       <c r="H14">
-        <v>0.7959895340329979</v>
+        <v>1.496676579931233</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1219674357448302</v>
+        <v>0.2633858750268327</v>
       </c>
       <c r="K14">
-        <v>2.236487665388069</v>
+        <v>0.8205135477365104</v>
       </c>
       <c r="L14">
-        <v>0.3459933449989734</v>
+        <v>0.2232554320097506</v>
       </c>
       <c r="M14">
-        <v>0.3602285865337365</v>
+        <v>0.294344742118092</v>
       </c>
       <c r="N14">
-        <v>1.238701940115746</v>
+        <v>2.918710860944302</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.36588612523957</v>
+        <v>1.273985400300461</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04207933920504203</v>
+        <v>0.1113057179180537</v>
       </c>
       <c r="E15">
-        <v>0.06723643608899987</v>
+        <v>0.168948277956362</v>
       </c>
       <c r="F15">
-        <v>1.507796033501762</v>
+        <v>2.428625503212089</v>
       </c>
       <c r="G15">
-        <v>1.276907030252659</v>
+        <v>1.723838158525552</v>
       </c>
       <c r="H15">
-        <v>0.7932009974753669</v>
+        <v>1.496795655408306</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1220758484346938</v>
+        <v>0.2634401288842074</v>
       </c>
       <c r="K15">
-        <v>2.211014334065737</v>
+        <v>0.8137038936120291</v>
       </c>
       <c r="L15">
-        <v>0.3422055896815408</v>
+        <v>0.2223488789730936</v>
       </c>
       <c r="M15">
-        <v>0.3565388022012854</v>
+        <v>0.293500777896277</v>
       </c>
       <c r="N15">
-        <v>1.244823900658105</v>
+        <v>2.921256361575502</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.289698074631673</v>
+        <v>1.257200374999087</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04117399316032433</v>
+        <v>0.1112546388254323</v>
       </c>
       <c r="E16">
-        <v>0.06747279907457449</v>
+        <v>0.1691977492857235</v>
       </c>
       <c r="F16">
-        <v>1.465736547976405</v>
+        <v>2.426115262803606</v>
       </c>
       <c r="G16">
-        <v>1.232939528582193</v>
+        <v>1.71896832744882</v>
       </c>
       <c r="H16">
-        <v>0.7776736477130584</v>
+        <v>1.49764943633032</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1227086513670788</v>
+        <v>0.2637570881358426</v>
       </c>
       <c r="K16">
-        <v>2.065615688916864</v>
+        <v>0.7747454855544333</v>
       </c>
       <c r="L16">
-        <v>0.3206035187924527</v>
+        <v>0.2171797761233023</v>
       </c>
       <c r="M16">
-        <v>0.3355071312510205</v>
+        <v>0.2886997490059926</v>
       </c>
       <c r="N16">
-        <v>1.280475824788915</v>
+        <v>2.93607983074908</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.243336190865477</v>
+        <v>1.247041001568959</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04062691403103358</v>
+        <v>0.1112279301594015</v>
       </c>
       <c r="E17">
-        <v>0.06762607114691432</v>
+        <v>0.1693555030152827</v>
       </c>
       <c r="F17">
-        <v>1.440695572885502</v>
+        <v>2.424850514512798</v>
       </c>
       <c r="G17">
-        <v>1.206698635595103</v>
+        <v>1.716205933852351</v>
       </c>
       <c r="H17">
-        <v>0.7685383123124865</v>
+        <v>1.498326229883702</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1231070357532058</v>
+        <v>0.2639569417076206</v>
       </c>
       <c r="K17">
-        <v>1.976900438287686</v>
+        <v>0.7509040555270587</v>
       </c>
       <c r="L17">
-        <v>0.3074389243347895</v>
+        <v>0.2140319615601811</v>
       </c>
       <c r="M17">
-        <v>0.3227007514374733</v>
+        <v>0.2857861467259895</v>
       </c>
       <c r="N17">
-        <v>1.302844867957091</v>
+        <v>2.945384326613762</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.216801780254855</v>
+        <v>1.241248360521439</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04031517246665572</v>
+        <v>0.1112142736877395</v>
       </c>
       <c r="E18">
-        <v>0.06771720528278102</v>
+        <v>0.1694479729530751</v>
       </c>
       <c r="F18">
-        <v>1.42656144916576</v>
+        <v>2.424224246918513</v>
       </c>
       <c r="G18">
-        <v>1.191862886891272</v>
+        <v>1.7146997870653</v>
       </c>
       <c r="H18">
-        <v>0.7634220350750383</v>
+        <v>1.498771770870974</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1233398749574981</v>
+        <v>0.2640738835852234</v>
       </c>
       <c r="K18">
-        <v>1.926037764198526</v>
+        <v>0.7372126445005165</v>
       </c>
       <c r="L18">
-        <v>0.2998971653325242</v>
+        <v>0.2122300004650413</v>
       </c>
       <c r="M18">
-        <v>0.3153681844067648</v>
+        <v>0.2841219974436129</v>
       </c>
       <c r="N18">
-        <v>1.315889872371237</v>
+        <v>2.950813479698297</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.207839677075185</v>
+        <v>1.239295805285593</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04021011209157876</v>
+        <v>0.1112099432963092</v>
       </c>
       <c r="E19">
-        <v>0.06774856710639465</v>
+        <v>0.1694795797989845</v>
       </c>
       <c r="F19">
-        <v>1.421821033243887</v>
+        <v>2.424029585997133</v>
       </c>
       <c r="G19">
-        <v>1.186882883992055</v>
+        <v>1.714204035967327</v>
       </c>
       <c r="H19">
-        <v>0.7617129896509311</v>
+        <v>1.498932290257898</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1234193417999396</v>
+        <v>0.2641138204493334</v>
       </c>
       <c r="K19">
-        <v>1.908843489177059</v>
+        <v>0.7325806810778488</v>
       </c>
       <c r="L19">
-        <v>0.2973486510248762</v>
+        <v>0.2116213635953841</v>
       </c>
       <c r="M19">
-        <v>0.3128910507759031</v>
+        <v>0.2835605543328654</v>
       </c>
       <c r="N19">
-        <v>1.320337048506786</v>
+        <v>2.95266499969491</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.248257709184259</v>
+        <v>1.248117234140949</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04068484599245181</v>
+        <v>0.11123059693535</v>
       </c>
       <c r="E20">
-        <v>0.06760944567089511</v>
+        <v>0.1693385304463015</v>
       </c>
       <c r="F20">
-        <v>1.443333167956055</v>
+        <v>2.424974678188718</v>
       </c>
       <c r="G20">
-        <v>1.209465136077498</v>
+        <v>1.716491435053541</v>
       </c>
       <c r="H20">
-        <v>0.7694963726216173</v>
+        <v>1.498248361292028</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1230642432985061</v>
+        <v>0.2639354609314353</v>
       </c>
       <c r="K20">
-        <v>1.98632706496781</v>
+        <v>0.7534397890849505</v>
       </c>
       <c r="L20">
-        <v>0.3088371511945951</v>
+        <v>0.2143661646124428</v>
       </c>
       <c r="M20">
-        <v>0.3240605214172518</v>
+        <v>0.2860950969187215</v>
       </c>
       <c r="N20">
-        <v>1.30044503912314</v>
+        <v>2.94438583087809</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.385678680158179</v>
+        <v>1.278361404436708</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04231576865447195</v>
+        <v>0.1113203315894289</v>
       </c>
       <c r="E21">
-        <v>0.06717802300044373</v>
+        <v>0.1688853235655232</v>
       </c>
       <c r="F21">
-        <v>1.51889948335976</v>
+        <v>2.42935864238413</v>
       </c>
       <c r="G21">
-        <v>1.288494555320597</v>
+        <v>1.7251650510687</v>
       </c>
       <c r="H21">
-        <v>0.797334917560363</v>
+        <v>1.49662251100068</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1219156545660223</v>
+        <v>0.2633599657670143</v>
       </c>
       <c r="K21">
-        <v>2.24871355269832</v>
+        <v>0.82378010664155</v>
       </c>
       <c r="L21">
-        <v>0.3478115925166776</v>
+        <v>0.2236906074502798</v>
       </c>
       <c r="M21">
-        <v>0.3620000086424398</v>
+        <v>0.2947500705590045</v>
       </c>
       <c r="N21">
-        <v>1.235776516602478</v>
+        <v>2.917494403294143</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.476813354792569</v>
+        <v>1.298576369559981</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04341067541898624</v>
+        <v>0.111394053835312</v>
       </c>
       <c r="E22">
-        <v>0.06692397048784149</v>
+        <v>0.16860450928659</v>
       </c>
       <c r="F22">
-        <v>1.570919009620852</v>
+        <v>2.433123857697197</v>
       </c>
       <c r="G22">
-        <v>1.342689777360732</v>
+        <v>1.731570507721784</v>
       </c>
       <c r="H22">
-        <v>0.8168742155147015</v>
+        <v>1.496060332886429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1211988615735233</v>
+        <v>0.2630015059445281</v>
       </c>
       <c r="K22">
-        <v>2.421947057903168</v>
+        <v>0.8699407626826599</v>
       </c>
       <c r="L22">
-        <v>0.3735964046629903</v>
+        <v>0.2298604318263813</v>
       </c>
       <c r="M22">
-        <v>0.3871340831239465</v>
+        <v>0.3005097820460065</v>
       </c>
       <c r="N22">
-        <v>1.195192515834094</v>
+        <v>2.900609167727687</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.428044528662241</v>
+        <v>1.287746373869822</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0428234955326694</v>
+        <v>0.1113533329132679</v>
       </c>
       <c r="E23">
-        <v>0.06705693672016744</v>
+        <v>0.1687529805202923</v>
       </c>
       <c r="F23">
-        <v>1.542902188620531</v>
+        <v>2.431031984416052</v>
       </c>
       <c r="G23">
-        <v>1.313519022205782</v>
+        <v>1.728084371015427</v>
       </c>
       <c r="H23">
-        <v>0.8063167825293363</v>
+        <v>1.496314621374268</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1215782790103823</v>
+        <v>0.2631912103857337</v>
       </c>
       <c r="K23">
-        <v>2.329314388202391</v>
+        <v>0.8452867713209855</v>
       </c>
       <c r="L23">
-        <v>0.3598037026226137</v>
+        <v>0.2265605786285505</v>
       </c>
       <c r="M23">
-        <v>0.3736864731287</v>
+        <v>0.2974263129137071</v>
       </c>
       <c r="N23">
-        <v>1.216694750206649</v>
+        <v>2.909558004620671</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.246032319666824</v>
+        <v>1.247630519473972</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04065864632055494</v>
+        <v>0.1112293859940223</v>
       </c>
       <c r="E24">
-        <v>0.06761695266944256</v>
+        <v>0.1693461982151847</v>
       </c>
       <c r="F24">
-        <v>1.442139896900855</v>
+        <v>2.424918229622889</v>
       </c>
       <c r="G24">
-        <v>1.208213623720184</v>
+        <v>1.716362104564496</v>
       </c>
       <c r="H24">
-        <v>0.769062811969917</v>
+        <v>1.498283389850798</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1230835779325909</v>
+        <v>0.2639451660248922</v>
       </c>
       <c r="K24">
-        <v>1.982064851262379</v>
+        <v>0.7522933361185551</v>
       </c>
       <c r="L24">
-        <v>0.3082049300118683</v>
+        <v>0.2142150472363085</v>
       </c>
       <c r="M24">
-        <v>0.3234456764425317</v>
+        <v>0.2859553865146367</v>
       </c>
       <c r="N24">
-        <v>1.301529427246116</v>
+        <v>2.94483700198662</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.054664089170529</v>
+        <v>1.206301617371025</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0384339488019485</v>
+        <v>0.1111609668253202</v>
       </c>
       <c r="E25">
-        <v>0.06833417505613504</v>
+        <v>0.1700524177890474</v>
       </c>
       <c r="F25">
-        <v>1.343609809913701</v>
+        <v>2.422192448282516</v>
       </c>
       <c r="G25">
-        <v>1.104338100263448</v>
+        <v>1.706879634780989</v>
       </c>
       <c r="H25">
-        <v>0.7341027751648426</v>
+        <v>1.502558597916121</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1248483031447138</v>
+        <v>0.2648346103718602</v>
       </c>
       <c r="K25">
-        <v>1.613628171251179</v>
+        <v>0.6528099306513013</v>
       </c>
       <c r="L25">
-        <v>0.2536790108254081</v>
+        <v>0.2012266893481041</v>
       </c>
       <c r="M25">
-        <v>0.2705062089772383</v>
+        <v>0.2740290205578262</v>
       </c>
       <c r="N25">
-        <v>1.39983533439252</v>
+        <v>2.985852331664503</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.177551604473877</v>
+        <v>0.9172726730905083</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1111673006571401</v>
+        <v>0.03687692748998472</v>
       </c>
       <c r="E2">
-        <v>0.1706298720381338</v>
+        <v>0.06895325819409681</v>
       </c>
       <c r="F2">
-        <v>2.423515257680847</v>
+        <v>1.278630168521445</v>
       </c>
       <c r="G2">
-        <v>1.702612152364651</v>
+        <v>1.034972503320233</v>
       </c>
       <c r="H2">
-        <v>1.507559806245695</v>
+        <v>0.7122953512619432</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2655555384710722</v>
+        <v>0.1262649745048723</v>
       </c>
       <c r="K2">
-        <v>0.5802664747389201</v>
+        <v>1.346176707974877</v>
       </c>
       <c r="L2">
-        <v>0.1919466336200912</v>
+        <v>0.2142845012137258</v>
       </c>
       <c r="M2">
-        <v>0.2656339456856216</v>
+        <v>0.2323950628134881</v>
       </c>
       <c r="N2">
-        <v>3.018603368224845</v>
+        <v>1.477659237155176</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.159121228193612</v>
+        <v>0.8260105916553186</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1112072717473254</v>
+        <v>0.0358662726389376</v>
       </c>
       <c r="E3">
-        <v>0.1710572777252943</v>
+        <v>0.06942687719280005</v>
       </c>
       <c r="F3">
-        <v>2.426490535055862</v>
+        <v>1.238785786010041</v>
       </c>
       <c r="G3">
-        <v>1.701411247377848</v>
+        <v>0.991845412609095</v>
       </c>
       <c r="H3">
-        <v>1.512107015662849</v>
+        <v>0.6997179444276611</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2660855716250907</v>
+        <v>0.1272965797592409</v>
       </c>
       <c r="K3">
-        <v>0.5315427134649156</v>
+        <v>1.166661805122033</v>
       </c>
       <c r="L3">
-        <v>0.1858347664823725</v>
+        <v>0.1879570215793223</v>
       </c>
       <c r="M3">
-        <v>0.2601866460158142</v>
+        <v>0.2070134985998706</v>
       </c>
       <c r="N3">
-        <v>3.042393113258008</v>
+        <v>1.53361288466116</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.148327013197417</v>
+        <v>0.7707843388053277</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1112495207557416</v>
+        <v>0.03526597743038451</v>
       </c>
       <c r="E4">
-        <v>0.1713375635083783</v>
+        <v>0.06974356115268388</v>
       </c>
       <c r="F4">
-        <v>2.429343575623278</v>
+        <v>1.216229238703974</v>
       </c>
       <c r="G4">
-        <v>1.701507668663524</v>
+        <v>0.9671114428040823</v>
       </c>
       <c r="H4">
-        <v>1.515470812905036</v>
+        <v>0.6930050224629412</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2664315478317461</v>
+        <v>0.1279647845250222</v>
       </c>
       <c r="K4">
-        <v>0.5018435728428869</v>
+        <v>1.057102456790147</v>
       </c>
       <c r="L4">
-        <v>0.1821698538767507</v>
+        <v>0.1719449079264876</v>
       </c>
       <c r="M4">
-        <v>0.2569619244733019</v>
+        <v>0.1916209162006446</v>
       </c>
       <c r="N4">
-        <v>3.057787081099281</v>
+        <v>1.569496846048292</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.144060060659825</v>
+        <v>0.7484685847204275</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1112712077995113</v>
+        <v>0.03502621633833058</v>
       </c>
       <c r="E5">
-        <v>0.1714562826130657</v>
+        <v>0.06987901299332344</v>
       </c>
       <c r="F5">
-        <v>2.430764462194048</v>
+        <v>1.207494851914042</v>
       </c>
       <c r="G5">
-        <v>1.701756639637111</v>
+        <v>0.9574478346717825</v>
       </c>
       <c r="H5">
-        <v>1.516985499993368</v>
+        <v>0.6905127452891691</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2665777115678054</v>
+        <v>0.1282457663468586</v>
       </c>
       <c r="K5">
-        <v>0.4897959637178815</v>
+        <v>1.01259659433677</v>
       </c>
       <c r="L5">
-        <v>0.1806985391216926</v>
+        <v>0.1654542997538329</v>
       </c>
       <c r="M5">
-        <v>0.255678100110682</v>
+        <v>0.1853926627145626</v>
       </c>
       <c r="N5">
-        <v>3.064258194315034</v>
+        <v>1.58449611794649</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.143359509896982</v>
+        <v>0.7447741133583463</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1112750794332769</v>
+        <v>0.03498669167574064</v>
       </c>
       <c r="E6">
-        <v>0.1714762679393593</v>
+        <v>0.06990188828055099</v>
       </c>
       <c r="F6">
-        <v>2.431016002912166</v>
+        <v>1.206071524284916</v>
       </c>
       <c r="G6">
-        <v>1.701810645707766</v>
+        <v>0.9558676457936599</v>
       </c>
       <c r="H6">
-        <v>1.517245708451767</v>
+        <v>0.6901133002435529</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2666022949005207</v>
+        <v>0.1282929457651596</v>
       </c>
       <c r="K6">
-        <v>0.4877988016492623</v>
+        <v>1.005214170833312</v>
       </c>
       <c r="L6">
-        <v>0.1804555698891619</v>
+        <v>0.1643785069863455</v>
       </c>
       <c r="M6">
-        <v>0.2554667540417519</v>
+        <v>0.1843610351555611</v>
       </c>
       <c r="N6">
-        <v>3.065344674921707</v>
+        <v>1.587009235247265</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.148268933371526</v>
+        <v>0.7704826319123583</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1112497951099627</v>
+        <v>0.03526272452104351</v>
       </c>
       <c r="E7">
-        <v>0.1713391463600056</v>
+        <v>0.06974536212297611</v>
       </c>
       <c r="F7">
-        <v>2.429361692291273</v>
+        <v>1.216109619421729</v>
       </c>
       <c r="G7">
-        <v>1.701510177372441</v>
+        <v>0.966979462928208</v>
       </c>
       <c r="H7">
-        <v>1.515490657639035</v>
+        <v>0.6929704392274374</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2664334980745213</v>
+        <v>0.1279685388703768</v>
       </c>
       <c r="K7">
-        <v>0.5016808712821614</v>
+        <v>1.05650170021633</v>
       </c>
       <c r="L7">
-        <v>0.182149921339871</v>
+        <v>0.1718572389538764</v>
       </c>
       <c r="M7">
-        <v>0.2569444876300331</v>
+        <v>0.191536745202626</v>
       </c>
       <c r="N7">
-        <v>3.0578735512475</v>
+        <v>1.569697618242881</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.17108873119949</v>
+        <v>0.8856288741856986</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1111774182002918</v>
+        <v>0.03652410659885774</v>
       </c>
       <c r="E8">
-        <v>0.170773541369212</v>
+        <v>0.06911112332119052</v>
       </c>
       <c r="F8">
-        <v>2.42432825934722</v>
+        <v>1.264482047914456</v>
       </c>
       <c r="G8">
-        <v>1.702025034189845</v>
+        <v>1.019725336569863</v>
       </c>
       <c r="H8">
-        <v>1.509009084854981</v>
+        <v>0.7077425410132179</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2657340395046184</v>
+        <v>0.1266134084177857</v>
       </c>
       <c r="K8">
-        <v>0.5634215868421393</v>
+        <v>1.284125843026686</v>
       </c>
       <c r="L8">
-        <v>0.189821090368639</v>
+        <v>0.2051725101095343</v>
       </c>
       <c r="M8">
-        <v>0.2637308895118124</v>
+        <v>0.2236012804740604</v>
       </c>
       <c r="N8">
-        <v>3.026642773138366</v>
+        <v>1.496629928888378</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.219963019112015</v>
+        <v>1.118533260151679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.111175243739229</v>
+        <v>0.03916989252332215</v>
       </c>
       <c r="E9">
-        <v>0.1698056273076491</v>
+        <v>0.06807805133602773</v>
       </c>
       <c r="F9">
-        <v>2.422593579230266</v>
+        <v>1.375550070973034</v>
       </c>
       <c r="G9">
-        <v>1.709651867564332</v>
+        <v>1.13814468760539</v>
       </c>
       <c r="H9">
-        <v>1.500830794549344</v>
+        <v>0.7452326054865921</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2645247763319283</v>
+        <v>0.1242353858724359</v>
       </c>
       <c r="K9">
-        <v>0.6862113036758899</v>
+        <v>1.737050882641</v>
       </c>
       <c r="L9">
-        <v>0.2055579196290154</v>
+        <v>0.2719152770707325</v>
       </c>
       <c r="M9">
-        <v>0.277986581061846</v>
+        <v>0.2881908088624883</v>
       </c>
       <c r="N9">
-        <v>2.971640193286312</v>
+        <v>1.365849780956069</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.258366497067726</v>
+        <v>1.295006625524792</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.111257917202785</v>
+        <v>0.04123682443723453</v>
       </c>
       <c r="E10">
-        <v>0.1691799832665495</v>
+        <v>0.06745571744954315</v>
       </c>
       <c r="F10">
-        <v>2.426273286554817</v>
+        <v>1.468631100889809</v>
       </c>
       <c r="G10">
-        <v>1.719294743894181</v>
+        <v>1.235969493762823</v>
       </c>
       <c r="H10">
-        <v>1.497579831657163</v>
+        <v>0.7787351462391143</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2637345530402815</v>
+        <v>0.1226636971638637</v>
       </c>
       <c r="K10">
-        <v>0.7774688693669987</v>
+        <v>2.075761880023236</v>
       </c>
       <c r="L10">
-        <v>0.2175401239452412</v>
+        <v>0.3221099225724231</v>
       </c>
       <c r="M10">
-        <v>0.2890337909246838</v>
+        <v>0.3369730802574011</v>
       </c>
       <c r="N10">
-        <v>2.935028618669186</v>
+        <v>1.2779478917113</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.276375422120395</v>
+        <v>1.376699355929617</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1113136364834055</v>
+        <v>0.04220844565063331</v>
       </c>
       <c r="E11">
-        <v>0.1689137932384488</v>
+        <v>0.06720437527924439</v>
       </c>
       <c r="F11">
-        <v>2.429022093946372</v>
+        <v>1.513853341902816</v>
       </c>
       <c r="G11">
-        <v>1.724560075568206</v>
+        <v>1.283229355349931</v>
       </c>
       <c r="H11">
-        <v>1.496698687703827</v>
+        <v>0.7954544896474545</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2633962266279655</v>
+        <v>0.1219881226132955</v>
       </c>
       <c r="K11">
-        <v>0.8192110829205319</v>
+        <v>2.231614046859875</v>
       </c>
       <c r="L11">
-        <v>0.2230819709683374</v>
+        <v>0.3452685926490915</v>
       </c>
       <c r="M11">
-        <v>0.2941832136440894</v>
+        <v>0.3595225353816645</v>
       </c>
       <c r="N11">
-        <v>2.91919672434102</v>
+        <v>1.2398704129644</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.283272022441878</v>
+        <v>1.407859523196066</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1113373238533839</v>
+        <v>0.04258131356585082</v>
       </c>
       <c r="E12">
-        <v>0.1688156326261605</v>
+        <v>0.06711396625115351</v>
       </c>
       <c r="F12">
-        <v>2.430217432546513</v>
+        <v>1.531426577176532</v>
       </c>
       <c r="G12">
-        <v>1.726680338059424</v>
+        <v>1.3015589642755</v>
       </c>
       <c r="H12">
-        <v>1.496450876611789</v>
+        <v>0.8020150325273221</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.263271140325358</v>
+        <v>0.121738096265851</v>
       </c>
       <c r="K12">
-        <v>0.8350504431195702</v>
+        <v>2.290928150936367</v>
       </c>
       <c r="L12">
-        <v>0.2251935534165881</v>
+        <v>0.3540913627126514</v>
       </c>
       <c r="M12">
-        <v>0.296150900478267</v>
+        <v>0.36811904667411</v>
       </c>
       <c r="N12">
-        <v>2.913319882934147</v>
+        <v>1.225738498611456</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.281783298941463</v>
+        <v>1.401138260051567</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1113321075289733</v>
+        <v>0.04250078295487825</v>
       </c>
       <c r="E13">
-        <v>0.1688366560047456</v>
+        <v>0.06713322189748716</v>
       </c>
       <c r="F13">
-        <v>2.429953129161547</v>
+        <v>1.527621337610967</v>
       </c>
       <c r="G13">
-        <v>1.726218079560397</v>
+        <v>1.297591468041816</v>
       </c>
       <c r="H13">
-        <v>1.496500430053175</v>
+        <v>0.8005916250860423</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.263297945284366</v>
+        <v>0.1217916836818578</v>
       </c>
       <c r="K13">
-        <v>0.8316377147974094</v>
+        <v>2.278139920565337</v>
       </c>
       <c r="L13">
-        <v>0.2247382094090682</v>
+        <v>0.3521887532945129</v>
       </c>
       <c r="M13">
-        <v>0.2957263380273218</v>
+        <v>0.3662649748838689</v>
       </c>
       <c r="N13">
-        <v>2.914580301691004</v>
+        <v>1.228769074299571</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.276941268990726</v>
+        <v>1.379258284887811</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1113155334905898</v>
+        <v>0.04223902018032888</v>
       </c>
       <c r="E14">
-        <v>0.1689056646508362</v>
+        <v>0.06719684046195229</v>
       </c>
       <c r="F14">
-        <v>2.429117341080982</v>
+        <v>1.515289905257333</v>
       </c>
       <c r="G14">
-        <v>1.724731977483486</v>
+        <v>1.284728438568806</v>
       </c>
       <c r="H14">
-        <v>1.496676579931233</v>
+        <v>0.7959895340328558</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2633858750268327</v>
+        <v>0.1219674357448977</v>
       </c>
       <c r="K14">
-        <v>0.8205135477365104</v>
+        <v>2.236487665388154</v>
       </c>
       <c r="L14">
-        <v>0.2232554320097506</v>
+        <v>0.3459933449989023</v>
       </c>
       <c r="M14">
-        <v>0.294344742118092</v>
+        <v>0.3602285865337294</v>
       </c>
       <c r="N14">
-        <v>2.918710860944302</v>
+        <v>1.238701940115732</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.273985400300461</v>
+        <v>1.36588612523957</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1113057179180537</v>
+        <v>0.04207933920492835</v>
       </c>
       <c r="E15">
-        <v>0.168948277956362</v>
+        <v>0.06723643608900054</v>
       </c>
       <c r="F15">
-        <v>2.428625503212089</v>
+        <v>1.507796033501748</v>
       </c>
       <c r="G15">
-        <v>1.723838158525552</v>
+        <v>1.276907030252659</v>
       </c>
       <c r="H15">
-        <v>1.496795655408306</v>
+        <v>0.7932009974753953</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2634401288842074</v>
+        <v>0.1220758484347488</v>
       </c>
       <c r="K15">
-        <v>0.8137038936120291</v>
+        <v>2.211014334065652</v>
       </c>
       <c r="L15">
-        <v>0.2223488789730936</v>
+        <v>0.3422055896815124</v>
       </c>
       <c r="M15">
-        <v>0.293500777896277</v>
+        <v>0.3565388022012925</v>
       </c>
       <c r="N15">
-        <v>2.921256361575502</v>
+        <v>1.244823900658105</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.257200374999087</v>
+        <v>1.289698074631673</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1112546388254323</v>
+        <v>0.04117399316004366</v>
       </c>
       <c r="E16">
-        <v>0.1691977492857235</v>
+        <v>0.06747279907457115</v>
       </c>
       <c r="F16">
-        <v>2.426115262803606</v>
+        <v>1.465736547976405</v>
       </c>
       <c r="G16">
-        <v>1.71896832744882</v>
+        <v>1.232939528582165</v>
       </c>
       <c r="H16">
-        <v>1.49764943633032</v>
+        <v>0.7776736477130584</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2637570881358426</v>
+        <v>0.122708651367132</v>
       </c>
       <c r="K16">
-        <v>0.7747454855544333</v>
+        <v>2.065615688916893</v>
       </c>
       <c r="L16">
-        <v>0.2171797761233023</v>
+        <v>0.3206035187923817</v>
       </c>
       <c r="M16">
-        <v>0.2886997490059926</v>
+        <v>0.3355071312510205</v>
       </c>
       <c r="N16">
-        <v>2.93607983074908</v>
+        <v>1.280475824788908</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.247041001568959</v>
+        <v>1.243336190865506</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1112279301594015</v>
+        <v>0.04062691403107621</v>
       </c>
       <c r="E17">
-        <v>0.1693555030152827</v>
+        <v>0.06762607114691677</v>
       </c>
       <c r="F17">
-        <v>2.424850514512798</v>
+        <v>1.440695572885517</v>
       </c>
       <c r="G17">
-        <v>1.716205933852351</v>
+        <v>1.206698635595075</v>
       </c>
       <c r="H17">
-        <v>1.498326229883702</v>
+        <v>0.7685383123124865</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2639569417076206</v>
+        <v>0.1231070357532884</v>
       </c>
       <c r="K17">
-        <v>0.7509040555270587</v>
+        <v>1.976900438287743</v>
       </c>
       <c r="L17">
-        <v>0.2140319615601811</v>
+        <v>0.3074389243348747</v>
       </c>
       <c r="M17">
-        <v>0.2857861467259895</v>
+        <v>0.3227007514374733</v>
       </c>
       <c r="N17">
-        <v>2.945384326613762</v>
+        <v>1.302844867957091</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.241248360521439</v>
+        <v>1.216801780254769</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1112142736877395</v>
+        <v>0.04031517246652783</v>
       </c>
       <c r="E18">
-        <v>0.1694479729530751</v>
+        <v>0.06771720528279745</v>
       </c>
       <c r="F18">
-        <v>2.424224246918513</v>
+        <v>1.426561449165746</v>
       </c>
       <c r="G18">
-        <v>1.7146997870653</v>
+        <v>1.191862886891315</v>
       </c>
       <c r="H18">
-        <v>1.498771770870974</v>
+        <v>0.7634220350750525</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2640738835852234</v>
+        <v>0.1233398749574866</v>
       </c>
       <c r="K18">
-        <v>0.7372126445005165</v>
+        <v>1.926037764198639</v>
       </c>
       <c r="L18">
-        <v>0.2122300004650413</v>
+        <v>0.2998971653325526</v>
       </c>
       <c r="M18">
-        <v>0.2841219974436129</v>
+        <v>0.3153681844067719</v>
       </c>
       <c r="N18">
-        <v>2.950813479698297</v>
+        <v>1.315889872371272</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.239295805285593</v>
+        <v>1.207839677075157</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1112099432963092</v>
+        <v>0.04021011209165337</v>
       </c>
       <c r="E19">
-        <v>0.1694795797989845</v>
+        <v>0.06774856710639221</v>
       </c>
       <c r="F19">
-        <v>2.424029585997133</v>
+        <v>1.421821033243887</v>
       </c>
       <c r="G19">
-        <v>1.714204035967327</v>
+        <v>1.186882883992084</v>
       </c>
       <c r="H19">
-        <v>1.498932290257898</v>
+        <v>0.7617129896509311</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2641138204493334</v>
+        <v>0.1234193417999823</v>
       </c>
       <c r="K19">
-        <v>0.7325806810778488</v>
+        <v>1.908843489177116</v>
       </c>
       <c r="L19">
-        <v>0.2116213635953841</v>
+        <v>0.2973486510249046</v>
       </c>
       <c r="M19">
-        <v>0.2835605543328654</v>
+        <v>0.3128910507759031</v>
       </c>
       <c r="N19">
-        <v>2.95266499969491</v>
+        <v>1.320337048506786</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.248117234140949</v>
+        <v>1.248257709184202</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.11123059693535</v>
+        <v>0.04068484599233813</v>
       </c>
       <c r="E20">
-        <v>0.1693385304463015</v>
+        <v>0.06760944567089111</v>
       </c>
       <c r="F20">
-        <v>2.424974678188718</v>
+        <v>1.443333167956055</v>
       </c>
       <c r="G20">
-        <v>1.716491435053541</v>
+        <v>1.20946513607754</v>
       </c>
       <c r="H20">
-        <v>1.498248361292028</v>
+        <v>0.7694963726214894</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2639354609314353</v>
+        <v>0.1230642432984341</v>
       </c>
       <c r="K20">
-        <v>0.7534397890849505</v>
+        <v>1.986327064967867</v>
       </c>
       <c r="L20">
-        <v>0.2143661646124428</v>
+        <v>0.3088371511945951</v>
       </c>
       <c r="M20">
-        <v>0.2860950969187215</v>
+        <v>0.3240605214172447</v>
       </c>
       <c r="N20">
-        <v>2.94438583087809</v>
+        <v>1.300445039123197</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.278361404436708</v>
+        <v>1.385678680158179</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1113203315894289</v>
+        <v>0.04231576865442932</v>
       </c>
       <c r="E21">
-        <v>0.1688853235655232</v>
+        <v>0.06717802300045794</v>
       </c>
       <c r="F21">
-        <v>2.42935864238413</v>
+        <v>1.51889948335976</v>
       </c>
       <c r="G21">
-        <v>1.7251650510687</v>
+        <v>1.288494555320568</v>
       </c>
       <c r="H21">
-        <v>1.49662251100068</v>
+        <v>0.7973349175605051</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2633599657670143</v>
+        <v>0.1219156545659796</v>
       </c>
       <c r="K21">
-        <v>0.82378010664155</v>
+        <v>2.248713552698348</v>
       </c>
       <c r="L21">
-        <v>0.2236906074502798</v>
+        <v>0.347811592516706</v>
       </c>
       <c r="M21">
-        <v>0.2947500705590045</v>
+        <v>0.362000008642454</v>
       </c>
       <c r="N21">
-        <v>2.917494403294143</v>
+        <v>1.235776516602471</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.298576369559981</v>
+        <v>1.476813354792483</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.111394053835312</v>
+        <v>0.04341067541901467</v>
       </c>
       <c r="E22">
-        <v>0.16860450928659</v>
+        <v>0.06692397048785681</v>
       </c>
       <c r="F22">
-        <v>2.433123857697197</v>
+        <v>1.570919009620866</v>
       </c>
       <c r="G22">
-        <v>1.731570507721784</v>
+        <v>1.342689777360704</v>
       </c>
       <c r="H22">
-        <v>1.496060332886429</v>
+        <v>0.8168742155148436</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2630015059445281</v>
+        <v>0.1211988615736086</v>
       </c>
       <c r="K22">
-        <v>0.8699407626826599</v>
+        <v>2.421947057903139</v>
       </c>
       <c r="L22">
-        <v>0.2298604318263813</v>
+        <v>0.3735964046629903</v>
       </c>
       <c r="M22">
-        <v>0.3005097820460065</v>
+        <v>0.3871340831239536</v>
       </c>
       <c r="N22">
-        <v>2.900609167727687</v>
+        <v>1.195192515834208</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.287746373869822</v>
+        <v>1.428044528662241</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1113533329132679</v>
+        <v>0.04282349553254861</v>
       </c>
       <c r="E23">
-        <v>0.1687529805202923</v>
+        <v>0.06705693672016655</v>
       </c>
       <c r="F23">
-        <v>2.431031984416052</v>
+        <v>1.542902188620531</v>
       </c>
       <c r="G23">
-        <v>1.728084371015427</v>
+        <v>1.31351902220581</v>
       </c>
       <c r="H23">
-        <v>1.496314621374268</v>
+        <v>0.8063167825293363</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2631912103857337</v>
+        <v>0.1215782790103219</v>
       </c>
       <c r="K23">
-        <v>0.8452867713209855</v>
+        <v>2.32931438820242</v>
       </c>
       <c r="L23">
-        <v>0.2265605786285505</v>
+        <v>0.3598037026225143</v>
       </c>
       <c r="M23">
-        <v>0.2974263129137071</v>
+        <v>0.3736864731286929</v>
       </c>
       <c r="N23">
-        <v>2.909558004620671</v>
+        <v>1.216694750206649</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.247630519473972</v>
+        <v>1.246032319666824</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1112293859940223</v>
+        <v>0.04065864632035954</v>
       </c>
       <c r="E24">
-        <v>0.1693461982151847</v>
+        <v>0.06761695266944479</v>
       </c>
       <c r="F24">
-        <v>2.424918229622889</v>
+        <v>1.442139896900827</v>
       </c>
       <c r="G24">
-        <v>1.716362104564496</v>
+        <v>1.208213623720155</v>
       </c>
       <c r="H24">
-        <v>1.498283389850798</v>
+        <v>0.7690628119698033</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2639451660248922</v>
+        <v>0.1230835779327029</v>
       </c>
       <c r="K24">
-        <v>0.7522933361185551</v>
+        <v>1.982064851262408</v>
       </c>
       <c r="L24">
-        <v>0.2142150472363085</v>
+        <v>0.3082049300118825</v>
       </c>
       <c r="M24">
-        <v>0.2859553865146367</v>
+        <v>0.3234456764425175</v>
       </c>
       <c r="N24">
-        <v>2.94483700198662</v>
+        <v>1.30152942724618</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.206301617371025</v>
+        <v>1.054664089170615</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1111609668253202</v>
+        <v>0.03843394880169271</v>
       </c>
       <c r="E25">
-        <v>0.1700524177890474</v>
+        <v>0.06833417505613393</v>
       </c>
       <c r="F25">
-        <v>2.422192448282516</v>
+        <v>1.343609809913687</v>
       </c>
       <c r="G25">
-        <v>1.706879634780989</v>
+        <v>1.104338100263405</v>
       </c>
       <c r="H25">
-        <v>1.502558597916121</v>
+        <v>0.7341027751647289</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2648346103718602</v>
+        <v>0.1248483031447183</v>
       </c>
       <c r="K25">
-        <v>0.6528099306513013</v>
+        <v>1.613628171251065</v>
       </c>
       <c r="L25">
-        <v>0.2012266893481041</v>
+        <v>0.2536790108252802</v>
       </c>
       <c r="M25">
-        <v>0.2740290205578262</v>
+        <v>0.2705062089772348</v>
       </c>
       <c r="N25">
-        <v>2.985852331664503</v>
+        <v>1.399835334392499</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9172726730905083</v>
+        <v>0.728956843870435</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03687692748998472</v>
+        <v>0.03911157427090117</v>
       </c>
       <c r="E2">
-        <v>0.06895325819409681</v>
+        <v>0.1033479288668784</v>
       </c>
       <c r="F2">
-        <v>1.278630168521445</v>
+        <v>0.8779071508878644</v>
       </c>
       <c r="G2">
-        <v>1.034972503320233</v>
+        <v>0.8042282615118239</v>
       </c>
       <c r="H2">
-        <v>0.7122953512619432</v>
+        <v>0.006440363315771913</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.02034584694464003</v>
       </c>
       <c r="J2">
-        <v>0.1262649745048723</v>
+        <v>0.5402649831300863</v>
       </c>
       <c r="K2">
-        <v>1.346176707974877</v>
+        <v>0.6270928659868744</v>
       </c>
       <c r="L2">
-        <v>0.2142845012137258</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2323950628134881</v>
+        <v>1.684970297221867</v>
       </c>
       <c r="N2">
-        <v>1.477659237155176</v>
+        <v>0.3640170926298083</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8260105916553186</v>
+        <v>0.6371190688446688</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0358662726389376</v>
+        <v>0.03726678284887086</v>
       </c>
       <c r="E3">
-        <v>0.06942687719280005</v>
+        <v>0.09585729329562276</v>
       </c>
       <c r="F3">
-        <v>1.238785786010041</v>
+        <v>0.8107324203069339</v>
       </c>
       <c r="G3">
-        <v>0.991845412609095</v>
+        <v>0.7434918784963997</v>
       </c>
       <c r="H3">
-        <v>0.6997179444276611</v>
+        <v>0.008725594013854393</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02379170822481003</v>
       </c>
       <c r="J3">
-        <v>0.1272965797592409</v>
+        <v>0.5174989941401265</v>
       </c>
       <c r="K3">
-        <v>1.166661805122033</v>
+        <v>0.6191835225566642</v>
       </c>
       <c r="L3">
-        <v>0.1879570215793223</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2070134985998706</v>
+        <v>1.472287195029423</v>
       </c>
       <c r="N3">
-        <v>1.53361288466116</v>
+        <v>0.3170620047394692</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7707843388053277</v>
+        <v>0.5803146234202359</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03526597743038451</v>
+        <v>0.03613197258909295</v>
       </c>
       <c r="E4">
-        <v>0.06974356115268388</v>
+        <v>0.09126062080044761</v>
       </c>
       <c r="F4">
-        <v>1.216229238703974</v>
+        <v>0.7702300707415048</v>
       </c>
       <c r="G4">
-        <v>0.9671114428040823</v>
+        <v>0.706852971219007</v>
       </c>
       <c r="H4">
-        <v>0.6930050224629412</v>
+        <v>0.01035799380668042</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02615447917374825</v>
       </c>
       <c r="J4">
-        <v>0.1279647845250222</v>
+        <v>0.5039426896417325</v>
       </c>
       <c r="K4">
-        <v>1.057102456790147</v>
+        <v>0.6142050777287373</v>
       </c>
       <c r="L4">
-        <v>0.1719449079264876</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1916209162006446</v>
+        <v>1.342534339803819</v>
       </c>
       <c r="N4">
-        <v>1.569496846048292</v>
+        <v>0.2883975124828453</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7484685847204275</v>
+        <v>0.5561435953071623</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03502621633833058</v>
+        <v>0.03571111678301975</v>
       </c>
       <c r="E5">
-        <v>0.06987901299332344</v>
+        <v>0.0893243301477622</v>
       </c>
       <c r="F5">
-        <v>1.207494851914042</v>
+        <v>0.7527951757301707</v>
       </c>
       <c r="G5">
-        <v>0.9574478346717825</v>
+        <v>0.6908433257928266</v>
       </c>
       <c r="H5">
-        <v>0.6905127452891691</v>
+        <v>0.01108378745560929</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0272776102533121</v>
       </c>
       <c r="J5">
-        <v>0.1282457663468586</v>
+        <v>0.4978821674719143</v>
       </c>
       <c r="K5">
-        <v>1.01259659433677</v>
+        <v>0.6110180215745409</v>
       </c>
       <c r="L5">
-        <v>0.1654542997538329</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1853926627145626</v>
+        <v>1.291381698846465</v>
       </c>
       <c r="N5">
-        <v>1.58449611794649</v>
+        <v>0.2770708478412729</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7447741133583463</v>
+        <v>0.5510015760234808</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03498669167574064</v>
+        <v>0.03569328979166997</v>
       </c>
       <c r="E6">
-        <v>0.06990188828055099</v>
+        <v>0.08893010374696031</v>
       </c>
       <c r="F6">
-        <v>1.206071524284916</v>
+        <v>0.7485649410137043</v>
       </c>
       <c r="G6">
-        <v>0.9558676457936599</v>
+        <v>0.6866935708396653</v>
       </c>
       <c r="H6">
-        <v>0.6901133002435529</v>
+        <v>0.01121397711977533</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.02759720344701577</v>
       </c>
       <c r="J6">
-        <v>0.1282929457651596</v>
+        <v>0.4961053097088666</v>
       </c>
       <c r="K6">
-        <v>1.005214170833312</v>
+        <v>0.6091125181943937</v>
       </c>
       <c r="L6">
-        <v>0.1643785069863455</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1843610351555611</v>
+        <v>1.284788555131456</v>
       </c>
       <c r="N6">
-        <v>1.587009235247265</v>
+        <v>0.2755810574731328</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7704826319123583</v>
+        <v>0.5769139642317214</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03526272452104351</v>
+        <v>0.03626965956935635</v>
       </c>
       <c r="E7">
-        <v>0.06974536212297611</v>
+        <v>0.09103657710247592</v>
       </c>
       <c r="F7">
-        <v>1.216109619421729</v>
+        <v>0.7663198279950763</v>
       </c>
       <c r="G7">
-        <v>0.966979462928208</v>
+        <v>0.7025384903772505</v>
       </c>
       <c r="H7">
-        <v>0.6929704392274374</v>
+        <v>0.01038393956792795</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02650504322938474</v>
       </c>
       <c r="J7">
-        <v>0.1279685388703768</v>
+        <v>0.5017421046813979</v>
       </c>
       <c r="K7">
-        <v>1.05650170021633</v>
+        <v>0.6104094184697182</v>
       </c>
       <c r="L7">
-        <v>0.1718572389538764</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.191536745202626</v>
+        <v>1.347020564788551</v>
       </c>
       <c r="N7">
-        <v>1.569697618242881</v>
+        <v>0.2893090548000572</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8856288741856986</v>
+        <v>0.6932687748074784</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03652410659885774</v>
+        <v>0.03867108808783826</v>
       </c>
       <c r="E8">
-        <v>0.06911112332119052</v>
+        <v>0.1005041189245401</v>
       </c>
       <c r="F8">
-        <v>1.264482047914456</v>
+        <v>0.849720273808245</v>
       </c>
       <c r="G8">
-        <v>1.019725336569863</v>
+        <v>0.7777199037045648</v>
       </c>
       <c r="H8">
-        <v>0.7077425410132179</v>
+        <v>0.007196200861874724</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0218841801686116</v>
       </c>
       <c r="J8">
-        <v>0.1266134084177857</v>
+        <v>0.5295310091542405</v>
       </c>
       <c r="K8">
-        <v>1.284125843026686</v>
+        <v>0.6194514944274196</v>
       </c>
       <c r="L8">
-        <v>0.2051725101095343</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2236012804740604</v>
+        <v>1.618359640594917</v>
       </c>
       <c r="N8">
-        <v>1.496629928888378</v>
+        <v>0.3492093750594734</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.118533260151679</v>
+        <v>0.9237741320515624</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03916989252332215</v>
+        <v>0.04310733926875798</v>
       </c>
       <c r="E9">
-        <v>0.06807805133602773</v>
+        <v>0.1196201097276428</v>
       </c>
       <c r="F9">
-        <v>1.375550070973034</v>
+        <v>1.02654225018486</v>
       </c>
       <c r="G9">
-        <v>1.13814468760539</v>
+        <v>0.9384506362678309</v>
       </c>
       <c r="H9">
-        <v>0.7452326054865921</v>
+        <v>0.002853160426349421</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01436129123530527</v>
       </c>
       <c r="J9">
-        <v>0.1242353858724359</v>
+        <v>0.5914961915396759</v>
       </c>
       <c r="K9">
-        <v>1.737050882641</v>
+        <v>0.642899704888336</v>
       </c>
       <c r="L9">
-        <v>0.2719152770707325</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2881908088624883</v>
+        <v>2.149156170608023</v>
       </c>
       <c r="N9">
-        <v>1.365849780956069</v>
+        <v>0.46629922089285</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.295006625524792</v>
+        <v>1.078907323528568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04123682443723453</v>
+        <v>0.04731487996885164</v>
       </c>
       <c r="E10">
-        <v>0.06745571744954315</v>
+        <v>0.1328275525948541</v>
       </c>
       <c r="F10">
-        <v>1.468631100889809</v>
+        <v>1.141172184483764</v>
       </c>
       <c r="G10">
-        <v>1.235969493762823</v>
+        <v>1.038447315172562</v>
       </c>
       <c r="H10">
-        <v>0.7787351462391143</v>
+        <v>0.001272520177920899</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01048582287445221</v>
       </c>
       <c r="J10">
-        <v>0.1226636971638637</v>
+        <v>0.6281662079743882</v>
       </c>
       <c r="K10">
-        <v>2.075761880023236</v>
+        <v>0.6420775881472451</v>
       </c>
       <c r="L10">
-        <v>0.3221099225724231</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3369730802574011</v>
+        <v>2.566755514520793</v>
       </c>
       <c r="N10">
-        <v>1.2779478917113</v>
+        <v>0.5357721384566503</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.376699355929617</v>
+        <v>1.050681471249391</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.04220844565063331</v>
+        <v>0.05833177279878754</v>
       </c>
       <c r="E11">
-        <v>0.06720437527924439</v>
+        <v>0.1431409986984651</v>
       </c>
       <c r="F11">
-        <v>1.513853341902816</v>
+        <v>1.03014046456218</v>
       </c>
       <c r="G11">
-        <v>1.283229355349931</v>
+        <v>0.9038581160280472</v>
       </c>
       <c r="H11">
-        <v>0.7954544896474545</v>
+        <v>0.01987418818793785</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01035979912438911</v>
       </c>
       <c r="J11">
-        <v>0.1219881226132955</v>
+        <v>0.5532552709865257</v>
       </c>
       <c r="K11">
-        <v>2.231614046859875</v>
+        <v>0.5149595109483656</v>
       </c>
       <c r="L11">
-        <v>0.3452685926490915</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3595225353816645</v>
+        <v>2.931150068828771</v>
       </c>
       <c r="N11">
-        <v>1.2398704129644</v>
+        <v>0.4195187462505885</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.407859523196066</v>
+        <v>0.9993468106101204</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.04258131356585082</v>
+        <v>0.06817738830131503</v>
       </c>
       <c r="E12">
-        <v>0.06711396625115351</v>
+        <v>0.1676662123072887</v>
       </c>
       <c r="F12">
-        <v>1.531426577176532</v>
+        <v>0.9220029258838167</v>
       </c>
       <c r="G12">
-        <v>1.3015589642755</v>
+        <v>0.7824702063826834</v>
       </c>
       <c r="H12">
-        <v>0.8020150325273221</v>
+        <v>0.05870003346504404</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01037220293963426</v>
       </c>
       <c r="J12">
-        <v>0.121738096265851</v>
+        <v>0.4887154518831949</v>
       </c>
       <c r="K12">
-        <v>2.290928150936367</v>
+        <v>0.431508375681517</v>
       </c>
       <c r="L12">
-        <v>0.3540913627126514</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.36811904667411</v>
+        <v>3.151944329796663</v>
       </c>
       <c r="N12">
-        <v>1.225738498611456</v>
+        <v>0.3184455405974376</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.401138260051567</v>
+        <v>0.9227494904611433</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04250078295487825</v>
+        <v>0.07776768729232941</v>
       </c>
       <c r="E13">
-        <v>0.06713322189748716</v>
+        <v>0.2034648467674671</v>
       </c>
       <c r="F13">
-        <v>1.527621337610967</v>
+        <v>0.8038943162794112</v>
       </c>
       <c r="G13">
-        <v>1.297591468041816</v>
+        <v>0.6576321179657185</v>
       </c>
       <c r="H13">
-        <v>0.8005916250860423</v>
+        <v>0.1147415503460394</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01095146720458562</v>
       </c>
       <c r="J13">
-        <v>0.1217916836818578</v>
+        <v>0.424965168335504</v>
       </c>
       <c r="K13">
-        <v>2.278139920565337</v>
+        <v>0.3706305780457004</v>
       </c>
       <c r="L13">
-        <v>0.3521887532945129</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3662649748838689</v>
+        <v>3.280598254751112</v>
       </c>
       <c r="N13">
-        <v>1.228769074299571</v>
+        <v>0.2255176467315749</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.379258284887811</v>
+        <v>0.8574066395154034</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.04223902018032888</v>
+        <v>0.08456193727937489</v>
       </c>
       <c r="E14">
-        <v>0.06719684046195229</v>
+        <v>0.2358244236045799</v>
       </c>
       <c r="F14">
-        <v>1.515289905257333</v>
+        <v>0.7170481448675048</v>
       </c>
       <c r="G14">
-        <v>1.284728438568806</v>
+        <v>0.5693662715887058</v>
       </c>
       <c r="H14">
-        <v>0.7959895340328558</v>
+        <v>0.1643601813002391</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01172418815272991</v>
       </c>
       <c r="J14">
-        <v>0.1219674357448977</v>
+        <v>0.380949836714052</v>
       </c>
       <c r="K14">
-        <v>2.236487665388154</v>
+        <v>0.340148889067958</v>
       </c>
       <c r="L14">
-        <v>0.3459933449989023</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3602285865337294</v>
+        <v>3.330908515482065</v>
       </c>
       <c r="N14">
-        <v>1.238701940115732</v>
+        <v>0.1667982363272884</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.36588612523957</v>
+        <v>0.8351307708657885</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.04207933920492835</v>
+        <v>0.08603393421822148</v>
       </c>
       <c r="E15">
-        <v>0.06723643608900054</v>
+        <v>0.243939720416126</v>
       </c>
       <c r="F15">
-        <v>1.507796033501748</v>
+        <v>0.6922676927351716</v>
       </c>
       <c r="G15">
-        <v>1.276907030252659</v>
+        <v>0.5452217358359093</v>
       </c>
       <c r="H15">
-        <v>0.7932009974753953</v>
+        <v>0.1769990355558946</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01219742593117967</v>
       </c>
       <c r="J15">
-        <v>0.1220758484347488</v>
+        <v>0.3694448969775266</v>
       </c>
       <c r="K15">
-        <v>2.211014334065652</v>
+        <v>0.3347585952202703</v>
       </c>
       <c r="L15">
-        <v>0.3422055896815124</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3565388022012925</v>
+        <v>3.324334980475669</v>
       </c>
       <c r="N15">
-        <v>1.244823900658105</v>
+        <v>0.1528685433618548</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.289698074631673</v>
+        <v>0.7844094654194009</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04117399316004366</v>
+        <v>0.08196393395554935</v>
       </c>
       <c r="E16">
-        <v>0.06747279907457115</v>
+        <v>0.2296397225891091</v>
       </c>
       <c r="F16">
-        <v>1.465736547976405</v>
+        <v>0.6657506726637337</v>
       </c>
       <c r="G16">
-        <v>1.232939528582165</v>
+        <v>0.5263876190846872</v>
       </c>
       <c r="H16">
-        <v>0.7776736477130584</v>
+        <v>0.1649783052531575</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01392621629203727</v>
       </c>
       <c r="J16">
-        <v>0.122708651367132</v>
+        <v>0.3656951047406523</v>
       </c>
       <c r="K16">
-        <v>2.065615688916893</v>
+        <v>0.3459526131671913</v>
       </c>
       <c r="L16">
-        <v>0.3206035187923817</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3355071312510205</v>
+        <v>3.115081934365008</v>
       </c>
       <c r="N16">
-        <v>1.280475824788908</v>
+        <v>0.1453302556331479</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.243336190865506</v>
+        <v>0.7796733629152754</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04062691403107621</v>
+        <v>0.07518227838836822</v>
       </c>
       <c r="E17">
-        <v>0.06762607114691677</v>
+        <v>0.2001084451084125</v>
       </c>
       <c r="F17">
-        <v>1.440695572885517</v>
+        <v>0.6909838556089625</v>
       </c>
       <c r="G17">
-        <v>1.206698635595075</v>
+        <v>0.5579507591982065</v>
       </c>
       <c r="H17">
-        <v>0.7685383123124865</v>
+        <v>0.1276239629073075</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01488347578509508</v>
       </c>
       <c r="J17">
-        <v>0.1231070357532884</v>
+        <v>0.3858519769173512</v>
       </c>
       <c r="K17">
-        <v>1.976900438287743</v>
+        <v>0.3689835943125139</v>
       </c>
       <c r="L17">
-        <v>0.3074389243348747</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3227007514374733</v>
+        <v>2.928786658124807</v>
       </c>
       <c r="N17">
-        <v>1.302844867957091</v>
+        <v>0.1690840056153604</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.216801780254769</v>
+        <v>0.8168001293951761</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.04031517246652783</v>
+        <v>0.0658144832458234</v>
       </c>
       <c r="E18">
-        <v>0.06771720528279745</v>
+        <v>0.1621664857898573</v>
       </c>
       <c r="F18">
-        <v>1.426561449165746</v>
+        <v>0.7684428726215486</v>
       </c>
       <c r="G18">
-        <v>1.191862886891315</v>
+        <v>0.6428818639803069</v>
       </c>
       <c r="H18">
-        <v>0.7634220350750525</v>
+        <v>0.07485601848067347</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01481738049497761</v>
       </c>
       <c r="J18">
-        <v>0.1233398749574866</v>
+        <v>0.4319980164699473</v>
       </c>
       <c r="K18">
-        <v>1.926037764198639</v>
+        <v>0.4152166921462914</v>
       </c>
       <c r="L18">
-        <v>0.2998971653325526</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3153681844067719</v>
+        <v>2.73933009152222</v>
       </c>
       <c r="N18">
-        <v>1.315889872371272</v>
+        <v>0.2288610443243186</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.207839677075157</v>
+        <v>0.8806698457838422</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.04021011209165337</v>
+        <v>0.05659502323949539</v>
       </c>
       <c r="E19">
-        <v>0.06774856710639221</v>
+        <v>0.1339340212831992</v>
       </c>
       <c r="F19">
-        <v>1.421821033243887</v>
+        <v>0.8809952131824303</v>
       </c>
       <c r="G19">
-        <v>1.186882883992084</v>
+        <v>0.765087500179348</v>
       </c>
       <c r="H19">
-        <v>0.7617129896509311</v>
+        <v>0.02920737339807289</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01447850108397741</v>
       </c>
       <c r="J19">
-        <v>0.1234193417999823</v>
+        <v>0.4956074727414261</v>
       </c>
       <c r="K19">
-        <v>1.908843489177116</v>
+        <v>0.4868230613396918</v>
       </c>
       <c r="L19">
-        <v>0.2973486510249046</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3128910507759031</v>
+        <v>2.577431219671183</v>
       </c>
       <c r="N19">
-        <v>1.320337048506786</v>
+        <v>0.325642848425872</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.248257709184202</v>
+        <v>1.028052330990619</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04068484599233813</v>
+        <v>0.04674486119809984</v>
       </c>
       <c r="E20">
-        <v>0.06760944567089111</v>
+        <v>0.1287584973703511</v>
       </c>
       <c r="F20">
-        <v>1.443333167956055</v>
+        <v>1.098522877924751</v>
       </c>
       <c r="G20">
-        <v>1.20946513607754</v>
+        <v>0.9983029117414759</v>
       </c>
       <c r="H20">
-        <v>0.7694963726214894</v>
+        <v>0.00160100018011855</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01236830059078198</v>
       </c>
       <c r="J20">
-        <v>0.1230642432984341</v>
+        <v>0.6114114263759802</v>
       </c>
       <c r="K20">
-        <v>1.986327064967867</v>
+        <v>0.630442902610902</v>
       </c>
       <c r="L20">
-        <v>0.3088371511945951</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3240605214172447</v>
+        <v>2.47396401081815</v>
       </c>
       <c r="N20">
-        <v>1.300445039123197</v>
+        <v>0.5200578192287679</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.385678680158179</v>
+        <v>1.165252639590051</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.04231576865442932</v>
+        <v>0.0485498039817216</v>
       </c>
       <c r="E21">
-        <v>0.06717802300045794</v>
+        <v>0.1409509872583827</v>
       </c>
       <c r="F21">
-        <v>1.51889948335976</v>
+        <v>1.219961179018568</v>
       </c>
       <c r="G21">
-        <v>1.288494555320568</v>
+        <v>1.111912114106161</v>
       </c>
       <c r="H21">
-        <v>0.7973349175605051</v>
+        <v>0.0004431027920546171</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.009464776724446011</v>
       </c>
       <c r="J21">
-        <v>0.1219156545659796</v>
+        <v>0.6583902448461743</v>
       </c>
       <c r="K21">
-        <v>2.248713552698348</v>
+        <v>0.6562617063822671</v>
       </c>
       <c r="L21">
-        <v>0.347811592516706</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.362000008642454</v>
+        <v>2.766107945200247</v>
       </c>
       <c r="N21">
-        <v>1.235776516602471</v>
+        <v>0.6016003025233942</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.476813354792483</v>
+        <v>1.25327163110137</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04341067541901467</v>
+        <v>0.04996673453375422</v>
       </c>
       <c r="E22">
-        <v>0.06692397048785681</v>
+        <v>0.1487683288599073</v>
       </c>
       <c r="F22">
-        <v>1.570919009620866</v>
+        <v>1.295924795433649</v>
       </c>
       <c r="G22">
-        <v>1.342689777360704</v>
+        <v>1.182132956582734</v>
       </c>
       <c r="H22">
-        <v>0.8168742155148436</v>
+        <v>0.0001091586481114515</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.007552838745237267</v>
       </c>
       <c r="J22">
-        <v>0.1211988615736086</v>
+        <v>0.6870921075844194</v>
       </c>
       <c r="K22">
-        <v>2.421947057903139</v>
+        <v>0.6698573988176761</v>
       </c>
       <c r="L22">
-        <v>0.3735964046629903</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3871340831239536</v>
+        <v>2.961236562510635</v>
       </c>
       <c r="N22">
-        <v>1.195192515834208</v>
+        <v>0.6444464779741423</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.428044528662241</v>
+        <v>1.210058058910164</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04282349553254861</v>
+        <v>0.04901902102415079</v>
       </c>
       <c r="E23">
-        <v>0.06705693672016655</v>
+        <v>0.1447885242604254</v>
       </c>
       <c r="F23">
-        <v>1.542902188620531</v>
+        <v>1.25955922580556</v>
       </c>
       <c r="G23">
-        <v>1.31351902220581</v>
+        <v>1.149332123633513</v>
       </c>
       <c r="H23">
-        <v>0.8063167825293363</v>
+        <v>0.0002565445208249084</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.008189712891356393</v>
       </c>
       <c r="J23">
-        <v>0.1215782790103219</v>
+        <v>0.6741582434060263</v>
       </c>
       <c r="K23">
-        <v>2.32931438820242</v>
+        <v>0.6668916749102465</v>
       </c>
       <c r="L23">
-        <v>0.3598037026225143</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3736864731286929</v>
+        <v>2.850559417930214</v>
       </c>
       <c r="N23">
-        <v>1.216694750206649</v>
+        <v>0.6202484865361413</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.246032319666824</v>
+        <v>1.040024242863836</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04065864632035954</v>
+        <v>0.04574054813518558</v>
       </c>
       <c r="E24">
-        <v>0.06761695266944479</v>
+        <v>0.1297355772595281</v>
       </c>
       <c r="F24">
-        <v>1.442139896900827</v>
+        <v>1.117979137306534</v>
       </c>
       <c r="G24">
-        <v>1.208213623720155</v>
+        <v>1.020304392877279</v>
       </c>
       <c r="H24">
-        <v>0.7690628119698033</v>
+        <v>0.001414969832663537</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.0117360340783792</v>
       </c>
       <c r="J24">
-        <v>0.1230835779327029</v>
+        <v>0.6227934883164608</v>
       </c>
       <c r="K24">
-        <v>1.982064851262408</v>
+        <v>0.6488772372427931</v>
       </c>
       <c r="L24">
-        <v>0.3082049300118825</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3234456764425175</v>
+        <v>2.445322711139454</v>
       </c>
       <c r="N24">
-        <v>1.30152942724618</v>
+        <v>0.5313180436014164</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.054664089170615</v>
+        <v>0.8560860453580403</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03843394880169271</v>
+        <v>0.04218452312308685</v>
       </c>
       <c r="E25">
-        <v>0.06833417505613393</v>
+        <v>0.1140617424407233</v>
       </c>
       <c r="F25">
-        <v>1.343609809913687</v>
+        <v>0.9712422440390327</v>
       </c>
       <c r="G25">
-        <v>1.104338100263405</v>
+        <v>0.8868248058508783</v>
       </c>
       <c r="H25">
-        <v>0.7341027751647289</v>
+        <v>0.003820696708487503</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01670967319170025</v>
       </c>
       <c r="J25">
-        <v>0.1248483031447183</v>
+        <v>0.5704943854096314</v>
       </c>
       <c r="K25">
-        <v>1.613628171251065</v>
+        <v>0.629989638336852</v>
       </c>
       <c r="L25">
-        <v>0.2536790108252802</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2705062089772348</v>
+        <v>2.014048544456131</v>
       </c>
       <c r="N25">
-        <v>1.399835334392499</v>
+        <v>0.4363840510046373</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_24/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.728956843870435</v>
+        <v>0.6529489951161338</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03911157427090117</v>
+        <v>0.04185681495733107</v>
       </c>
       <c r="E2">
-        <v>0.1033479288668784</v>
+        <v>0.08743952094289087</v>
       </c>
       <c r="F2">
-        <v>0.8779071508878644</v>
+        <v>0.7951727191235136</v>
       </c>
       <c r="G2">
-        <v>0.8042282615118239</v>
+        <v>0.6908568285786174</v>
       </c>
       <c r="H2">
-        <v>0.006440363315771913</v>
+        <v>0.004355214778729466</v>
       </c>
       <c r="I2">
-        <v>0.02034584694464003</v>
+        <v>0.01389211819926039</v>
       </c>
       <c r="J2">
-        <v>0.5402649831300863</v>
+        <v>0.5312241909439592</v>
       </c>
       <c r="K2">
-        <v>0.6270928659868744</v>
+        <v>0.5025602320813221</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2085041331879047</v>
       </c>
       <c r="M2">
-        <v>1.684970297221867</v>
+        <v>0.1694612783564509</v>
       </c>
       <c r="N2">
-        <v>0.3640170926298083</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.785607496364037</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3916554813247615</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6371190688446688</v>
+        <v>0.573081180714837</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03726678284887086</v>
+        <v>0.03909988770516293</v>
       </c>
       <c r="E3">
-        <v>0.09585729329562276</v>
+        <v>0.08094129674138195</v>
       </c>
       <c r="F3">
-        <v>0.8107324203069339</v>
+        <v>0.7407620180990051</v>
       </c>
       <c r="G3">
-        <v>0.7434918784963997</v>
+        <v>0.645437928678092</v>
       </c>
       <c r="H3">
-        <v>0.008725594013854393</v>
+        <v>0.00609506327066317</v>
       </c>
       <c r="I3">
-        <v>0.02379170822481003</v>
+        <v>0.01629341989144439</v>
       </c>
       <c r="J3">
-        <v>0.5174989941401265</v>
+        <v>0.5114852829854186</v>
       </c>
       <c r="K3">
-        <v>0.6191835225566642</v>
+        <v>0.5045339218252671</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2131386134502016</v>
       </c>
       <c r="M3">
-        <v>1.472287195029423</v>
+        <v>0.1680684115293261</v>
       </c>
       <c r="N3">
-        <v>0.3170620047394692</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.551948237309915</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3403803022714271</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5803146234202359</v>
+        <v>0.5235169583040147</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03613197258909295</v>
+        <v>0.03741946378863403</v>
       </c>
       <c r="E4">
-        <v>0.09126062080044761</v>
+        <v>0.07698356174333953</v>
       </c>
       <c r="F4">
-        <v>0.7702300707415048</v>
+        <v>0.7079344196127906</v>
       </c>
       <c r="G4">
-        <v>0.706852971219007</v>
+        <v>0.6182772871976709</v>
       </c>
       <c r="H4">
-        <v>0.01035799380668042</v>
+        <v>0.007353017410426488</v>
       </c>
       <c r="I4">
-        <v>0.02615447917374825</v>
+        <v>0.01795977312735353</v>
       </c>
       <c r="J4">
-        <v>0.5039426896417325</v>
+        <v>0.4994432875400037</v>
       </c>
       <c r="K4">
-        <v>0.6142050777287373</v>
+        <v>0.5056155091548789</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2159584819804117</v>
       </c>
       <c r="M4">
-        <v>1.342534339803819</v>
+        <v>0.1676519469949795</v>
       </c>
       <c r="N4">
-        <v>0.2883975124828453</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1.40949729824132</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.3091068625084148</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5561435953071623</v>
+        <v>0.5024207146792321</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03571111678301975</v>
+        <v>0.03678068737877283</v>
       </c>
       <c r="E5">
-        <v>0.0893243301477622</v>
+        <v>0.07535078550726848</v>
       </c>
       <c r="F5">
-        <v>0.7527951757301707</v>
+        <v>0.6937749126244626</v>
       </c>
       <c r="G5">
-        <v>0.6908433257928266</v>
+        <v>0.6063731553808651</v>
       </c>
       <c r="H5">
-        <v>0.01108378745560929</v>
+        <v>0.007915453933122346</v>
       </c>
       <c r="I5">
-        <v>0.0272776102533121</v>
+        <v>0.01879398998024762</v>
       </c>
       <c r="J5">
-        <v>0.4978821674719143</v>
+        <v>0.4940167962409561</v>
       </c>
       <c r="K5">
-        <v>0.6110180215745409</v>
+        <v>0.5051934782918863</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2167100494726526</v>
       </c>
       <c r="M5">
-        <v>1.291381698846465</v>
+        <v>0.167362830586562</v>
       </c>
       <c r="N5">
-        <v>0.2770708478412729</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1.353073213357533</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2966943270800897</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5510015760234808</v>
+        <v>0.4979732214449086</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03569328979166997</v>
+        <v>0.0367279311971842</v>
       </c>
       <c r="E6">
-        <v>0.08893010374696031</v>
+        <v>0.07505094017792457</v>
       </c>
       <c r="F6">
-        <v>0.7485649410137043</v>
+        <v>0.6903148078107293</v>
       </c>
       <c r="G6">
-        <v>0.6866935708396653</v>
+        <v>0.6031830780329983</v>
       </c>
       <c r="H6">
-        <v>0.01121397711977533</v>
+        <v>0.008016502598227504</v>
       </c>
       <c r="I6">
-        <v>0.02759720344701577</v>
+        <v>0.01907646131336893</v>
       </c>
       <c r="J6">
-        <v>0.4961053097088666</v>
+        <v>0.4924621802400537</v>
       </c>
       <c r="K6">
-        <v>0.6091125181943937</v>
+        <v>0.5041108071927134</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2163591515759578</v>
       </c>
       <c r="M6">
-        <v>1.284788555131456</v>
+        <v>0.1670405964841724</v>
       </c>
       <c r="N6">
-        <v>0.2755810574731328</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1.345430228458667</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2949833943484066</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5769139642317214</v>
+        <v>0.5214063413435497</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03626965956935635</v>
+        <v>0.03768459677174363</v>
       </c>
       <c r="E7">
-        <v>0.09103657710247592</v>
+        <v>0.07685776996215232</v>
       </c>
       <c r="F7">
-        <v>0.7663198279950763</v>
+        <v>0.7023762061381689</v>
       </c>
       <c r="G7">
-        <v>0.7025384903772505</v>
+        <v>0.6175251170678138</v>
       </c>
       <c r="H7">
-        <v>0.01038393956792795</v>
+        <v>0.007378751316845594</v>
       </c>
       <c r="I7">
-        <v>0.02650504322938474</v>
+        <v>0.01834434404181806</v>
       </c>
       <c r="J7">
-        <v>0.5017421046813979</v>
+        <v>0.4906857967930023</v>
       </c>
       <c r="K7">
-        <v>0.6104094184697182</v>
+        <v>0.502052430233384</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2143356230125804</v>
       </c>
       <c r="M7">
-        <v>1.347020564788551</v>
+        <v>0.1666186151345013</v>
       </c>
       <c r="N7">
-        <v>0.2893090548000572</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.411928941997701</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3096081550430796</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6932687748074784</v>
+        <v>0.6245704401202374</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03867108808783826</v>
+        <v>0.04154404937916567</v>
       </c>
       <c r="E8">
-        <v>0.1005041189245401</v>
+        <v>0.08500688659773203</v>
       </c>
       <c r="F8">
-        <v>0.849720273808245</v>
+        <v>0.7645863862896789</v>
       </c>
       <c r="G8">
-        <v>0.7777199037045648</v>
+        <v>0.6798517542134874</v>
       </c>
       <c r="H8">
-        <v>0.007196200861874724</v>
+        <v>0.004941786075702947</v>
       </c>
       <c r="I8">
-        <v>0.0218841801686116</v>
+        <v>0.01514327696561413</v>
       </c>
       <c r="J8">
-        <v>0.5295310091542405</v>
+        <v>0.4994290324914488</v>
       </c>
       <c r="K8">
-        <v>0.6194514944274196</v>
+        <v>0.4971108806066944</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2074868373584273</v>
       </c>
       <c r="M8">
-        <v>1.618359640594917</v>
+        <v>0.1669025305644567</v>
       </c>
       <c r="N8">
-        <v>0.3492093750594734</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.706040597379484</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3742497569813139</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9237741320515624</v>
+        <v>0.8246969398089732</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04310733926875798</v>
+        <v>0.04848276027556153</v>
       </c>
       <c r="E9">
-        <v>0.1196201097276428</v>
+        <v>0.1016254171712097</v>
       </c>
       <c r="F9">
-        <v>1.02654225018486</v>
+        <v>0.9057096814016177</v>
       </c>
       <c r="G9">
-        <v>0.9384506362678309</v>
+        <v>0.8046196978904874</v>
       </c>
       <c r="H9">
-        <v>0.002853160426349421</v>
+        <v>0.001722669716650249</v>
       </c>
       <c r="I9">
-        <v>0.01436129123530527</v>
+        <v>0.009865188886212906</v>
       </c>
       <c r="J9">
-        <v>0.5914961915396759</v>
+        <v>0.5450624628731475</v>
       </c>
       <c r="K9">
-        <v>0.642899704888336</v>
+        <v>0.4940988262533352</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1971980963635929</v>
       </c>
       <c r="M9">
-        <v>2.149156170608023</v>
+        <v>0.1733567774252975</v>
       </c>
       <c r="N9">
-        <v>0.46629922089285</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.289099869876168</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.5021972734934081</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.078907323528568</v>
+        <v>0.9649597150842055</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04731487996885164</v>
+        <v>0.05548755365496305</v>
       </c>
       <c r="E10">
-        <v>0.1328275525948541</v>
+        <v>0.1142599413952583</v>
       </c>
       <c r="F10">
-        <v>1.141172184483764</v>
+        <v>0.9845142977143695</v>
       </c>
       <c r="G10">
-        <v>1.038447315172562</v>
+        <v>0.900714686310522</v>
       </c>
       <c r="H10">
-        <v>0.001272520177920899</v>
+        <v>0.0007150808575224765</v>
       </c>
       <c r="I10">
-        <v>0.01048582287445221</v>
+        <v>0.00733126681822327</v>
       </c>
       <c r="J10">
-        <v>0.6281662079743882</v>
+        <v>0.5325355012994635</v>
       </c>
       <c r="K10">
-        <v>0.6420775881472451</v>
+        <v>0.4763696548503233</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1843504192662166</v>
       </c>
       <c r="M10">
-        <v>2.566755514520793</v>
+        <v>0.1742108540990444</v>
       </c>
       <c r="N10">
-        <v>0.5357721384566503</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>2.732035095491199</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5762761745041587</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.050681471249391</v>
+        <v>0.9666897813566777</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.05833177279878754</v>
+        <v>0.06960609932451689</v>
       </c>
       <c r="E11">
-        <v>0.1431409986984651</v>
+        <v>0.1319418516550588</v>
       </c>
       <c r="F11">
-        <v>1.03014046456218</v>
+        <v>0.8747979803387267</v>
       </c>
       <c r="G11">
-        <v>0.9038581160280472</v>
+        <v>0.8332896533936776</v>
       </c>
       <c r="H11">
-        <v>0.01987418818793785</v>
+        <v>0.01933628871446302</v>
       </c>
       <c r="I11">
-        <v>0.01035979912438911</v>
+        <v>0.007574134780983677</v>
       </c>
       <c r="J11">
-        <v>0.5532552709865257</v>
+        <v>0.4072089365289173</v>
       </c>
       <c r="K11">
-        <v>0.5149595109483656</v>
+        <v>0.3875013359745161</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1518427805759988</v>
       </c>
       <c r="M11">
-        <v>2.931150068828771</v>
+        <v>0.1411825578881896</v>
       </c>
       <c r="N11">
-        <v>0.4195187462505885</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3.050957534583461</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4452489634557253</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9993468106101204</v>
+        <v>0.9395890775946043</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.06817738830131503</v>
+        <v>0.08072378221797294</v>
       </c>
       <c r="E12">
-        <v>0.1676662123072887</v>
+        <v>0.158947271397917</v>
       </c>
       <c r="F12">
-        <v>0.9220029258838167</v>
+        <v>0.7820333332081759</v>
       </c>
       <c r="G12">
-        <v>0.7824702063826834</v>
+        <v>0.7531528507760044</v>
       </c>
       <c r="H12">
-        <v>0.05870003346504404</v>
+        <v>0.05812636270095339</v>
       </c>
       <c r="I12">
-        <v>0.01037220293963426</v>
+        <v>0.007595821020739635</v>
       </c>
       <c r="J12">
-        <v>0.4887154518831949</v>
+        <v>0.3377407506274608</v>
       </c>
       <c r="K12">
-        <v>0.431508375681517</v>
+        <v>0.3354142789737526</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1346425376098495</v>
       </c>
       <c r="M12">
-        <v>3.151944329796663</v>
+        <v>0.1197988783137447</v>
       </c>
       <c r="N12">
-        <v>0.3184455405974376</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.230172993409383</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.3339092127738752</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9227494904611433</v>
+        <v>0.8830964819602229</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07776768729232941</v>
+        <v>0.08932153555498701</v>
       </c>
       <c r="E13">
-        <v>0.2034648467674671</v>
+        <v>0.194916023857548</v>
       </c>
       <c r="F13">
-        <v>0.8038943162794112</v>
+        <v>0.6953445078005274</v>
       </c>
       <c r="G13">
-        <v>0.6576321179657185</v>
+        <v>0.6480519923107551</v>
       </c>
       <c r="H13">
-        <v>0.1147415503460394</v>
+        <v>0.1140717243414571</v>
       </c>
       <c r="I13">
-        <v>0.01095146720458562</v>
+        <v>0.007964705596311461</v>
       </c>
       <c r="J13">
-        <v>0.424965168335504</v>
+        <v>0.3060351211836547</v>
       </c>
       <c r="K13">
-        <v>0.3706305780457004</v>
+        <v>0.3028157284090121</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1248765151877285</v>
       </c>
       <c r="M13">
-        <v>3.280598254751112</v>
+        <v>0.1049933645269814</v>
       </c>
       <c r="N13">
-        <v>0.2255176467315749</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.322606285876418</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.2335988610607416</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8574066395154034</v>
+        <v>0.8300503956641592</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.08456193727937489</v>
+        <v>0.09418874249281828</v>
       </c>
       <c r="E14">
-        <v>0.2358244236045799</v>
+        <v>0.226285900257313</v>
       </c>
       <c r="F14">
-        <v>0.7170481448675048</v>
+        <v>0.6361770621468281</v>
       </c>
       <c r="G14">
-        <v>0.5693662715887058</v>
+        <v>0.5652203340175532</v>
       </c>
       <c r="H14">
-        <v>0.1643601813002391</v>
+        <v>0.1635930999112389</v>
       </c>
       <c r="I14">
-        <v>0.01172418815272991</v>
+        <v>0.008500697352412878</v>
       </c>
       <c r="J14">
-        <v>0.380949836714052</v>
+        <v>0.2969444811720194</v>
       </c>
       <c r="K14">
-        <v>0.340148889067958</v>
+        <v>0.288628522311221</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1209394093737086</v>
       </c>
       <c r="M14">
-        <v>3.330908515482065</v>
+        <v>0.09794002124503454</v>
       </c>
       <c r="N14">
-        <v>0.1667982363272884</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.349655990976544</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.170972878726559</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8351307708657885</v>
+        <v>0.8102807132972316</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.08603393421822148</v>
+        <v>0.09472482612622457</v>
       </c>
       <c r="E15">
-        <v>0.243939720416126</v>
+        <v>0.2342079990297634</v>
       </c>
       <c r="F15">
-        <v>0.6922676927351716</v>
+        <v>0.6210104399275238</v>
       </c>
       <c r="G15">
-        <v>0.5452217358359093</v>
+        <v>0.5396116019026067</v>
       </c>
       <c r="H15">
-        <v>0.1769990355558946</v>
+        <v>0.1761845988512221</v>
       </c>
       <c r="I15">
-        <v>0.01219742593117967</v>
+        <v>0.008880735154783714</v>
       </c>
       <c r="J15">
-        <v>0.3694448969775266</v>
+        <v>0.2996701379281177</v>
       </c>
       <c r="K15">
-        <v>0.3347585952202703</v>
+        <v>0.2869115995971097</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1204835286495811</v>
       </c>
       <c r="M15">
-        <v>3.324334980475669</v>
+        <v>0.09690765151125813</v>
       </c>
       <c r="N15">
-        <v>0.1528685433618548</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.338602957004696</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1563126592254775</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7844094654194009</v>
+        <v>0.7550316650138882</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.08196393395554935</v>
+        <v>0.08729465108043399</v>
       </c>
       <c r="E16">
-        <v>0.2296397225891091</v>
+        <v>0.222145740884752</v>
       </c>
       <c r="F16">
-        <v>0.6657506726637337</v>
+        <v>0.6188564963879131</v>
       </c>
       <c r="G16">
-        <v>0.5263876190846872</v>
+        <v>0.4980544006399867</v>
       </c>
       <c r="H16">
-        <v>0.1649783052531575</v>
+        <v>0.1639026939837578</v>
       </c>
       <c r="I16">
-        <v>0.01392621629203727</v>
+        <v>0.01007548011907922</v>
       </c>
       <c r="J16">
-        <v>0.3656951047406523</v>
+        <v>0.3473219308445294</v>
       </c>
       <c r="K16">
-        <v>0.3459526131671913</v>
+        <v>0.2993052168994117</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1240193774243803</v>
       </c>
       <c r="M16">
-        <v>3.115081934365008</v>
+        <v>0.101689087297836</v>
       </c>
       <c r="N16">
-        <v>0.1453302556331479</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.142688666258891</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1499751301427636</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7796733629152754</v>
+        <v>0.7415291335088625</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.07518227838836822</v>
+        <v>0.07960928633948328</v>
       </c>
       <c r="E17">
-        <v>0.2001084451084125</v>
+        <v>0.1943581233030258</v>
       </c>
       <c r="F17">
-        <v>0.6909838556089625</v>
+        <v>0.6465853933312644</v>
       </c>
       <c r="G17">
-        <v>0.5579507591982065</v>
+        <v>0.5120094670614748</v>
       </c>
       <c r="H17">
-        <v>0.1276239629073075</v>
+        <v>0.1263949830349702</v>
       </c>
       <c r="I17">
-        <v>0.01488347578509508</v>
+        <v>0.01074934445122722</v>
       </c>
       <c r="J17">
-        <v>0.3858519769173512</v>
+        <v>0.3861440290765898</v>
       </c>
       <c r="K17">
-        <v>0.3689835943125139</v>
+        <v>0.3165271718185725</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1296198244839344</v>
       </c>
       <c r="M17">
-        <v>2.928786658124807</v>
+        <v>0.1085393689326173</v>
       </c>
       <c r="N17">
-        <v>0.1690840056153604</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>2.975846302289085</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1765404250032958</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8168001293951761</v>
+        <v>0.7628785468713772</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0658144832458234</v>
+        <v>0.07059576093040931</v>
       </c>
       <c r="E18">
-        <v>0.1621664857898573</v>
+        <v>0.1569684217880507</v>
       </c>
       <c r="F18">
-        <v>0.7684428726215486</v>
+        <v>0.7110689211180556</v>
       </c>
       <c r="G18">
-        <v>0.6428818639803069</v>
+        <v>0.5739053025356355</v>
       </c>
       <c r="H18">
-        <v>0.07485601848067347</v>
+        <v>0.07359648449096312</v>
       </c>
       <c r="I18">
-        <v>0.01481738049497761</v>
+        <v>0.01057436677006507</v>
       </c>
       <c r="J18">
-        <v>0.4319980164699473</v>
+        <v>0.432799281616596</v>
       </c>
       <c r="K18">
-        <v>0.4152166921462914</v>
+        <v>0.3471228466531997</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1404497794523216</v>
       </c>
       <c r="M18">
-        <v>2.73933009152222</v>
+        <v>0.1204315910348033</v>
       </c>
       <c r="N18">
-        <v>0.2288610443243186</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>2.816417015104321</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.2421142682423039</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8806698457838422</v>
+        <v>0.805972892033509</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.05659502323949539</v>
+        <v>0.06209787099430031</v>
       </c>
       <c r="E19">
-        <v>0.1339340212831992</v>
+        <v>0.1262324266871051</v>
       </c>
       <c r="F19">
-        <v>0.8809952131824303</v>
+        <v>0.799998912896001</v>
       </c>
       <c r="G19">
-        <v>0.765087500179348</v>
+        <v>0.6669942232958164</v>
       </c>
       <c r="H19">
-        <v>0.02920737339807289</v>
+        <v>0.02805890426225233</v>
       </c>
       <c r="I19">
-        <v>0.01447850108397741</v>
+        <v>0.01040293056201325</v>
       </c>
       <c r="J19">
-        <v>0.4956074727414261</v>
+        <v>0.4854734720471185</v>
       </c>
       <c r="K19">
-        <v>0.4868230613396918</v>
+        <v>0.3921600556005345</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1567771944960121</v>
       </c>
       <c r="M19">
-        <v>2.577431219671183</v>
+        <v>0.1378010808449002</v>
       </c>
       <c r="N19">
-        <v>0.325642848425872</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>2.68917468210671</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3479097545478709</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.028052330990619</v>
+        <v>0.9172147300924962</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.04674486119809984</v>
+        <v>0.05367870398039543</v>
       </c>
       <c r="E20">
-        <v>0.1287584973703511</v>
+        <v>0.1109704125231676</v>
       </c>
       <c r="F20">
-        <v>1.098522877924751</v>
+        <v>0.9619678063605193</v>
       </c>
       <c r="G20">
-        <v>0.9983029117414759</v>
+        <v>0.8540591867664489</v>
       </c>
       <c r="H20">
-        <v>0.00160100018011855</v>
+        <v>0.0008972502976614116</v>
       </c>
       <c r="I20">
-        <v>0.01236830059078198</v>
+        <v>0.009001593920863193</v>
       </c>
       <c r="J20">
-        <v>0.6114114263759802</v>
+        <v>0.5536797968637899</v>
       </c>
       <c r="K20">
-        <v>0.630442902610902</v>
+        <v>0.4756300499329065</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1857078870683182</v>
       </c>
       <c r="M20">
-        <v>2.47396401081815</v>
+        <v>0.1717955081997502</v>
       </c>
       <c r="N20">
-        <v>0.5200578192287679</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2.636676517517969</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5599824438468204</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.165252639590051</v>
+        <v>1.051803464545969</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.0485498039817216</v>
+        <v>0.06054509923942675</v>
       </c>
       <c r="E21">
-        <v>0.1409509872583827</v>
+        <v>0.1200940744195869</v>
       </c>
       <c r="F21">
-        <v>1.219961179018568</v>
+        <v>1.004689288964343</v>
       </c>
       <c r="G21">
-        <v>1.111912114106161</v>
+        <v>1.012211076398302</v>
       </c>
       <c r="H21">
-        <v>0.0004431027920546171</v>
+        <v>0.0001559428067170465</v>
       </c>
       <c r="I21">
-        <v>0.009464776724446011</v>
+        <v>0.007113286431585486</v>
       </c>
       <c r="J21">
-        <v>0.6583902448461743</v>
+        <v>0.443370245374993</v>
       </c>
       <c r="K21">
-        <v>0.6562617063822671</v>
+        <v>0.4648931541960941</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1774171900832471</v>
       </c>
       <c r="M21">
-        <v>2.766107945200247</v>
+        <v>0.1738125778107147</v>
       </c>
       <c r="N21">
-        <v>0.6016003025233942</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>2.924748811279784</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.6422051154044368</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.25327163110137</v>
+        <v>1.14056545007486</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.04996673453375422</v>
+        <v>0.06569953565175268</v>
       </c>
       <c r="E22">
-        <v>0.1487683288599073</v>
+        <v>0.1264404023849117</v>
       </c>
       <c r="F22">
-        <v>1.295924795433649</v>
+        <v>1.026523099591657</v>
       </c>
       <c r="G22">
-        <v>1.182132956582734</v>
+        <v>1.120644293243174</v>
       </c>
       <c r="H22">
-        <v>0.0001091586481114515</v>
+        <v>1.008798907164987E-05</v>
       </c>
       <c r="I22">
-        <v>0.007552838745237267</v>
+        <v>0.005702438480709837</v>
       </c>
       <c r="J22">
-        <v>0.6870921075844194</v>
+        <v>0.372321770819056</v>
       </c>
       <c r="K22">
-        <v>0.6698573988176761</v>
+        <v>0.4551485731801108</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1713082784649167</v>
       </c>
       <c r="M22">
-        <v>2.961236562510635</v>
+        <v>0.1742191529094548</v>
       </c>
       <c r="N22">
-        <v>0.6444464779741423</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.112768887161451</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6841737532336793</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.210058058910164</v>
+        <v>1.094221446800162</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.04901902102415079</v>
+        <v>0.06227943716304907</v>
       </c>
       <c r="E23">
-        <v>0.1447885242604254</v>
+        <v>0.1231447726926092</v>
       </c>
       <c r="F23">
-        <v>1.25955922580556</v>
+        <v>1.024170629916952</v>
       </c>
       <c r="G23">
-        <v>1.149332123633513</v>
+        <v>1.058284546295369</v>
       </c>
       <c r="H23">
-        <v>0.0002565445208249084</v>
+        <v>6.414880893923502E-05</v>
       </c>
       <c r="I23">
-        <v>0.008189712891356393</v>
+        <v>0.006017986790225471</v>
       </c>
       <c r="J23">
-        <v>0.6741582434060263</v>
+        <v>0.4246365726417309</v>
       </c>
       <c r="K23">
-        <v>0.6668916749102465</v>
+        <v>0.4649025086832914</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1760354328667049</v>
       </c>
       <c r="M23">
-        <v>2.850559417930214</v>
+        <v>0.1759071839850392</v>
       </c>
       <c r="N23">
-        <v>0.6202484865361413</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.010754230014442</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6613945770473606</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.040024242863836</v>
+        <v>0.9257340230538205</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.04574054813518558</v>
+        <v>0.05259554871167893</v>
       </c>
       <c r="E24">
-        <v>0.1297355772595281</v>
+        <v>0.1107286107020942</v>
       </c>
       <c r="F24">
-        <v>1.117979137306534</v>
+        <v>0.9775009324356034</v>
       </c>
       <c r="G24">
-        <v>1.020304392877279</v>
+        <v>0.870464078413022</v>
       </c>
       <c r="H24">
-        <v>0.001414969832663537</v>
+        <v>0.0007317748780018007</v>
       </c>
       <c r="I24">
-        <v>0.0117360340783792</v>
+        <v>0.008297771978813984</v>
       </c>
       <c r="J24">
-        <v>0.6227934883164608</v>
+        <v>0.563650978442368</v>
       </c>
       <c r="K24">
-        <v>0.6488772372427931</v>
+        <v>0.4875965269568212</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1900583713186315</v>
       </c>
       <c r="M24">
-        <v>2.445322711139454</v>
+        <v>0.1763942367816576</v>
       </c>
       <c r="N24">
-        <v>0.5313180436014164</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>2.611958107799182</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5727867337556916</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8560860453580403</v>
+        <v>0.7652538474555683</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.04218452312308685</v>
+        <v>0.04668999951143604</v>
       </c>
       <c r="E25">
-        <v>0.1140617424407233</v>
+        <v>0.09701987281485014</v>
       </c>
       <c r="F25">
-        <v>0.9712422440390327</v>
+        <v>0.8647652264871226</v>
       </c>
       <c r="G25">
-        <v>0.8868248058508783</v>
+        <v>0.7600939946518821</v>
       </c>
       <c r="H25">
-        <v>0.003820696708487503</v>
+        <v>0.002415998607919301</v>
       </c>
       <c r="I25">
-        <v>0.01670967319170025</v>
+        <v>0.01171718295420199</v>
       </c>
       <c r="J25">
-        <v>0.5704943854096314</v>
+        <v>0.5391696571687845</v>
       </c>
       <c r="K25">
-        <v>0.629989638336852</v>
+        <v>0.4914948913880721</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1986307464276216</v>
       </c>
       <c r="M25">
-        <v>2.014048544456131</v>
+        <v>0.1699689100576087</v>
       </c>
       <c r="N25">
-        <v>0.4363840510046373</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.141109946220297</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4695256864229833</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
